--- a/RelatorioAuto.xlsx
+++ b/RelatorioAuto.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="163">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -44,289 +44,463 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>2023-10-21 14:33:45.557</t>
+    <t>2023-10-22 20:22:25.674</t>
+  </si>
+  <si>
+    <t>Car 3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.67</t>
   </si>
   <si>
     <t>Car 2</t>
   </si>
   <si>
-    <t>341671964#3</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.675</t>
   </si>
   <si>
     <t>Car 1</t>
   </si>
   <si>
-    <t>75035877</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:45.781</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:45.79</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.003</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.026</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.036</t>
-  </si>
-  <si>
-    <t>Car 3</t>
-  </si>
-  <si>
-    <t>15469696#4</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.226</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.246</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.255</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.434</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.466</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.487</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.794</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.798</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.814</t>
   </si>
   <si>
     <t>Car 4</t>
   </si>
   <si>
-    <t>207143229#0</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.649</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.681</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.692</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.853</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.886</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.905</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:46.904</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.066</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.103</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.119</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.124</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.269</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.321</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.336</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.482</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.54</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.55</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.56</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.691</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.748</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.765</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.897</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.964</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.98</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:47.982</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.1</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.183</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.206</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.215</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.384</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.407</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.427</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.439</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.638</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.659</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.664</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.881</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.883</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.903</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:48.911</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.103</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.119</t>
-  </si>
-  <si>
-    <t>:340479021_0</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.329</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.334</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.328</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.349</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.551</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.566</t>
-  </si>
-  <si>
-    <t>207143229#1</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.755</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.756</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.757</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.773</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.965</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.966</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:49.99</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.186</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.209</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.393</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.422</t>
-  </si>
-  <si>
-    <t>:150976803_1</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.6</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.602</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.605</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.629</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.804</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.82</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:50.858</t>
-  </si>
-  <si>
-    <t>207143229#2</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:51.02</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:51.036</t>
-  </si>
-  <si>
-    <t>:2368196617_0</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:51.074</t>
-  </si>
-  <si>
-    <t>2023-10-21 14:33:51.236</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.909</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.914</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:25.94</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.002</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.018</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.038</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.047</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.078</t>
+  </si>
+  <si>
+    <t>Car 5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.119</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.15</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.155</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.158</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.184</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.218</t>
+  </si>
+  <si>
+    <t>Car 6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.238</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.268</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.278</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.295</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.335</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.353</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.374</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.386</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.407</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.442</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.457</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.486</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.49</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.511</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.519</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.557</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.565</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.604</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.624</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.645</t>
+  </si>
+  <si>
+    <t>Car 8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.649</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.665</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.685</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.711</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.712</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.728</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.774</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.786</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.79</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.792</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.818</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.821</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.834</t>
+  </si>
+  <si>
+    <t>Car 9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.896</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.925</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.928</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.93</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.933</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.935</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.951</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:26.986</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.044</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.049</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.057</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.061</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.075</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.101</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.106</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.108</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.158</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.17</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.18</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.182</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.189</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.227</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.23</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.232</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.268</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.281</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.296</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.305</t>
+  </si>
+  <si>
+    <t>Car 10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.308</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.309</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.318</t>
+  </si>
+  <si>
+    <t>Car 11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.341</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.342</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.345</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.375</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.389</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.399</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.407</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.437</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.438</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.44</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.449</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.45</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.517</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.519</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.524</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.526</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.547</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.548</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.571</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.572</t>
+  </si>
+  <si>
+    <t>Car 12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.573</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.622</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.636</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.656</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.66</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.661</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.67</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.689</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.702</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.715</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.684</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.733</t>
+  </si>
+  <si>
+    <t>Car 13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.77</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.772</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.778</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.777</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.774</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.79</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.8</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.827</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.845</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.846</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.873</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.876</t>
+  </si>
+  <si>
+    <t>2023-10-22 20:22:27.896</t>
   </si>
 </sst>
 </file>
@@ -371,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -420,254 +594,254 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5163712654882173</v>
+        <v>0.7740137479782799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3769405438579198</v>
+        <v>0.12881271682174203</v>
       </c>
       <c r="F2" t="n">
-        <v>1107.9991945829079</v>
+        <v>973.9983980148493</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
       <c r="H2" t="n">
-        <v>3473.7185501015074</v>
+        <v>3053.571769549353</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.968777813501138</v>
+        <v>-22.968775989661108</v>
       </c>
       <c r="J2" t="n">
-        <v>-43.17946031800305</v>
+        <v>-43.179457258200564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4589795276918243</v>
+        <v>0.7675558336337562</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3644725098593599</v>
+        <v>0.1275172521823226</v>
       </c>
       <c r="F3" t="n">
-        <v>1097.5411475807853</v>
+        <v>972.8448069480005</v>
       </c>
       <c r="G3" t="n">
         <v>2.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3440.9283639803375</v>
+        <v>3049.9547908245936</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.964377212658015</v>
+        <v>-22.97008672211503</v>
       </c>
       <c r="J3" t="n">
-        <v>-43.18130506328718</v>
+        <v>-43.19012225863852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.498979527691824</v>
+        <v>0.736326246101324</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2081579001956189</v>
+        <v>0.12427845563706316</v>
       </c>
       <c r="F4" t="n">
-        <v>1289.6109599814063</v>
+        <v>949.4625784526409</v>
       </c>
       <c r="G4" t="n">
         <v>2.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4043.143808375154</v>
+        <v>2976.643606280778</v>
       </c>
       <c r="I4" t="n">
-        <v>-22.96438315861443</v>
+        <v>-22.964867510764847</v>
       </c>
       <c r="J4" t="n">
-        <v>-43.18129994432612</v>
+        <v>-43.174578057528194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5563712654882167</v>
+        <v>1.2875558336337563</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2435560888477768</v>
+        <v>0.35903946641377316</v>
       </c>
       <c r="F5" t="n">
-        <v>1300.3679082554602</v>
+        <v>1066.4021635634865</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4076.8710867910636</v>
+        <v>3343.295089983713</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.968782048950697</v>
+        <v>-22.970088509818375</v>
       </c>
       <c r="J5" t="n">
-        <v>-43.179467423691555</v>
+        <v>-43.19012341798135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.538979527691823</v>
+        <v>1.29401374797828</v>
       </c>
       <c r="E6" t="n">
-        <v>2.4678894098139508</v>
+        <v>0.3616334806349594</v>
       </c>
       <c r="F6" t="n">
-        <v>1487.097184826472</v>
+        <v>1067.5725713263068</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
       </c>
       <c r="H6" t="n">
-        <v>4662.340372769972</v>
+        <v>3346.964791121181</v>
       </c>
       <c r="I6" t="n">
-        <v>-22.964392036697305</v>
+        <v>-22.968777127536594</v>
       </c>
       <c r="J6" t="n">
-        <v>-43.181292301054405</v>
+        <v>-43.179459167180624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="n">
-        <v>3.596371265488216</v>
+        <v>1.2243268620464285</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5262037809561275</v>
+        <v>0.3451855759698895</v>
       </c>
       <c r="F7" t="n">
-        <v>1498.1530343724576</v>
+        <v>1036.061074488653</v>
       </c>
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
       <c r="H7" t="n">
-        <v>4697.00474348062</v>
+        <v>3248.165182799039</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.968788317693264</v>
+        <v>-22.964866591398472</v>
       </c>
       <c r="J7" t="n">
-        <v>-43.17947794057561</v>
+        <v>-43.174576144795736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7698849129731777</v>
+        <v>0.7488913176149865</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45300312531849035</v>
+        <v>0.12608612031778818</v>
       </c>
       <c r="F8" t="n">
-        <v>1154.3923549687408</v>
+        <v>955.2079659029545</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
       </c>
       <c r="H8" t="n">
-        <v>3619.179723400226</v>
+        <v>2994.6574175225837</v>
       </c>
       <c r="I8" t="n">
-        <v>-22.97490380876721</v>
+        <v>-22.97490820896547</v>
       </c>
       <c r="J8" t="n">
-        <v>-43.19028907483377</v>
+        <v>-43.1902915711257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>4.318979527691822</v>
+        <v>1.8075558336337563</v>
       </c>
       <c r="E9" t="n">
-        <v>3.6857182900939214</v>
+        <v>0.6945666422882342</v>
       </c>
       <c r="F9" t="n">
-        <v>1638.7663741269378</v>
+        <v>1161.3136232900838</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" t="n">
-        <v>5137.881656066085</v>
+        <v>3640.8806691428317</v>
       </c>
       <c r="I9" t="n">
-        <v>-22.96440061946745</v>
+        <v>-22.970091100598093</v>
       </c>
       <c r="J9" t="n">
-        <v>-43.181284912021745</v>
+        <v>-43.190125098126934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -676,126 +850,126 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>4.376371265488215</v>
+        <v>1.81401374797828</v>
       </c>
       <c r="E10" t="n">
-        <v>3.761210622698136</v>
+        <v>0.6984622898036374</v>
       </c>
       <c r="F10" t="n">
-        <v>1650.0463996268716</v>
+        <v>1162.5008477488755</v>
       </c>
       <c r="G10" t="n">
         <v>2.0</v>
       </c>
       <c r="H10" t="n">
-        <v>5173.2488459977885</v>
+        <v>3644.603092693009</v>
       </c>
       <c r="I10" t="n">
-        <v>-22.968794353598724</v>
+        <v>-22.968778773735334</v>
       </c>
       <c r="J10" t="n">
-        <v>-43.17948806683573</v>
+        <v>-43.179461928959576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8098849129731773</v>
+        <v>1.7443268620464285</v>
       </c>
       <c r="E11" t="n">
-        <v>1.4210375569800722</v>
+        <v>0.6683225608077991</v>
       </c>
       <c r="F11" t="n">
-        <v>1348.0813902519412</v>
+        <v>1149.700627317807</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4226.471630925916</v>
+        <v>3604.4692786923033</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.97489609220093</v>
+        <v>-22.96486524657411</v>
       </c>
       <c r="J11" t="n">
-        <v>-43.19028469712146</v>
+        <v>-43.17457334690224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>5.3589795276918215</v>
+        <v>1.2498849129731777</v>
       </c>
       <c r="E12" t="n">
-        <v>5.673530427559336</v>
+        <v>0.3500817196527419</v>
       </c>
       <c r="F12" t="n">
-        <v>1845.731320749781</v>
+        <v>1059.578991993807</v>
       </c>
       <c r="G12" t="n">
         <v>2.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5786.795180460904</v>
+        <v>3470.0100465188025</v>
       </c>
       <c r="I12" t="n">
-        <v>-22.964414628771628</v>
+        <v>-22.97490642341234</v>
       </c>
       <c r="J12" t="n">
-        <v>-43.18127285120637</v>
+        <v>-43.19029055815729</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>3.5898849129731767</v>
+        <v>2.0675558336337563</v>
       </c>
       <c r="E13" t="n">
-        <v>2.4200860876488792</v>
+        <v>0.9013320901998904</v>
       </c>
       <c r="F13" t="n">
-        <v>1496.9026873810083</v>
+        <v>1209.2771418200489</v>
       </c>
       <c r="G13" t="n">
         <v>2.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4693.084421570185</v>
+        <v>3791.2654387223915</v>
       </c>
       <c r="I13" t="n">
-        <v>-22.974888128409713</v>
+        <v>-22.97009269714159</v>
       </c>
       <c r="J13" t="n">
-        <v>-43.190280179155096</v>
+        <v>-43.19012613350076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -804,734 +978,734 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>5.416371265488214</v>
+        <v>2.07401374797828</v>
       </c>
       <c r="E14" t="n">
-        <v>5.771914467376056</v>
+        <v>0.9058797100265313</v>
       </c>
       <c r="F14" t="n">
-        <v>1857.3102475216465</v>
+        <v>1210.4727746268265</v>
       </c>
       <c r="G14" t="n">
         <v>2.0</v>
       </c>
       <c r="H14" t="n">
-        <v>5823.099462687345</v>
+        <v>3795.0142234789223</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.96880418060405</v>
+        <v>-22.968779787455922</v>
       </c>
       <c r="J14" t="n">
-        <v>-43.179504553312015</v>
+        <v>-43.17946362964863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>1.530165617440908</v>
+        <v>2.0043268620464287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4560966012073683</v>
+        <v>0.868923863918104</v>
       </c>
       <c r="F15" t="n">
-        <v>1110.5152900633584</v>
+        <v>1197.5818203216777</v>
       </c>
       <c r="G15" t="n">
         <v>2.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3481.607521331416</v>
+        <v>3754.595947609844</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.964995827794418</v>
+        <v>-22.964864411716047</v>
       </c>
       <c r="J15" t="n">
-        <v>-43.18043635009444</v>
+        <v>-43.174571609988476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>6.138979527691821</v>
+        <v>0.759820376604124</v>
       </c>
       <c r="E16" t="n">
-        <v>7.437419726116533</v>
+        <v>0.1259780505442377</v>
       </c>
       <c r="F16" t="n">
-        <v>2004.5095513835804</v>
+        <v>971.4632806033817</v>
       </c>
       <c r="G16" t="n">
         <v>2.0</v>
       </c>
       <c r="H16" t="n">
-        <v>6284.624183757017</v>
+        <v>3045.623141915256</v>
       </c>
       <c r="I16" t="n">
-        <v>-22.96442705995775</v>
+        <v>-22.96437466563381</v>
       </c>
       <c r="J16" t="n">
-        <v>-43.18126214901598</v>
+        <v>-43.181307256057664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>6.4563712654882135</v>
+        <v>1.7698849129731777</v>
       </c>
       <c r="E17" t="n">
-        <v>8.198650315187932</v>
+        <v>0.6780859643154016</v>
       </c>
       <c r="F17" t="n">
-        <v>2069.9905078608654</v>
+        <v>1154.3923549687408</v>
       </c>
       <c r="G17" t="n">
         <v>2.0</v>
       </c>
       <c r="H17" t="n">
-        <v>6489.931199376902</v>
+        <v>3619.179723400226</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.968816040902382</v>
+        <v>-22.97490380876721</v>
       </c>
       <c r="J17" t="n">
-        <v>-43.17952445098385</v>
+        <v>-43.19028907483377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>4.629884912973176</v>
+        <v>2.587555833633756</v>
       </c>
       <c r="E18" t="n">
-        <v>4.116181087890758</v>
+        <v>1.3928667054735158</v>
       </c>
       <c r="F18" t="n">
-        <v>1700.0704444419866</v>
+        <v>1306.2197562133122</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5330.0932890958775</v>
+        <v>4095.218937881509</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.974874608199407</v>
+        <v>-22.97009649253587</v>
       </c>
       <c r="J18" t="n">
-        <v>-43.190272508957115</v>
+        <v>-43.19012859485049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>2.3101656174409078</v>
+        <v>2.5940137479782797</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0711872148886588</v>
+        <v>1.3987205815204191</v>
       </c>
       <c r="F19" t="n">
-        <v>1254.3379183094567</v>
+        <v>1307.4322057160614</v>
       </c>
       <c r="G19" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3932.548869482596</v>
+        <v>4099.020445050749</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.964998105378122</v>
+        <v>-22.968782196139536</v>
       </c>
       <c r="J19" t="n">
-        <v>-43.18044182501873</v>
+        <v>-43.17946767062592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>7.17897952769182</v>
+        <v>2.5243268620464283</v>
       </c>
       <c r="E20" t="n">
-        <v>10.153312338154254</v>
+        <v>3.4731763086489043</v>
       </c>
       <c r="F20" t="n">
-        <v>2220.9532197842013</v>
+        <v>1294.359783662751</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="n">
-        <v>6963.254668151833</v>
+        <v>4058.0332454449217</v>
       </c>
       <c r="I20" t="n">
-        <v>-22.96444620048323</v>
+        <v>-22.964887946034075</v>
       </c>
       <c r="J20" t="n">
-        <v>-43.181245670656956</v>
+        <v>-43.17455300223488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>7.236371265488213</v>
+        <v>1.019820376604124</v>
       </c>
       <c r="E21" t="n">
-        <v>10.29172315784588</v>
+        <v>0.2279714022285164</v>
       </c>
       <c r="F21" t="n">
-        <v>2233.055223781947</v>
+        <v>1018.0626242852842</v>
       </c>
       <c r="G21" t="n">
         <v>2.0</v>
       </c>
       <c r="H21" t="n">
-        <v>7001.198861894071</v>
+        <v>3191.7310553592206</v>
       </c>
       <c r="I21" t="n">
-        <v>-22.96882627047467</v>
+        <v>-22.964375384442054</v>
       </c>
       <c r="J21" t="n">
-        <v>-43.17954161283481</v>
+        <v>-43.181306637225106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>3.350165617440907</v>
+        <v>0.7501656174409078</v>
       </c>
       <c r="E22" t="n">
-        <v>2.255332231000587</v>
+        <v>0.12594617258296786</v>
       </c>
       <c r="F22" t="n">
-        <v>1450.8407835264766</v>
+        <v>957.8603862297982</v>
       </c>
       <c r="G22" t="n">
         <v>2.0</v>
       </c>
       <c r="H22" t="n">
-        <v>4548.662480350836</v>
+        <v>3002.973613754662</v>
       </c>
       <c r="I22" t="n">
-        <v>-22.965002490080774</v>
+        <v>-22.964994416733536</v>
       </c>
       <c r="J22" t="n">
-        <v>-43.180452365099015</v>
+        <v>-43.1804329581438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>5.669884912973175</v>
+        <v>2.2898849129731778</v>
       </c>
       <c r="E23" t="n">
-        <v>6.228310733921328</v>
+        <v>1.1100988559766023</v>
       </c>
       <c r="F23" t="n">
-        <v>1908.6546139474099</v>
+        <v>1250.5598210547853</v>
       </c>
       <c r="G23" t="n">
         <v>2.0</v>
       </c>
       <c r="H23" t="n">
-        <v>5984.083276621568</v>
+        <v>3920.703037163071</v>
       </c>
       <c r="I23" t="n">
-        <v>-22.974857771621085</v>
+        <v>-22.97490036503007</v>
       </c>
       <c r="J23" t="n">
-        <v>-43.19026295733874</v>
+        <v>-43.190287121155166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>7.958979527691819</v>
+        <v>3.1075558336337554</v>
       </c>
       <c r="E24" t="n">
-        <v>12.463261920284639</v>
+        <v>1.988406276835452</v>
       </c>
       <c r="F24" t="n">
-        <v>2386.8404917513335</v>
+        <v>1404.5164737176872</v>
       </c>
       <c r="G24" t="n">
         <v>2.0</v>
       </c>
       <c r="H24" t="n">
-        <v>7483.371391447947</v>
+        <v>4403.417717040627</v>
       </c>
       <c r="I24" t="n">
-        <v>-22.964462480085327</v>
+        <v>-22.97010109100652</v>
       </c>
       <c r="J24" t="n">
-        <v>-43.181231655308814</v>
+        <v>-43.19013157700297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>8.276371265488212</v>
+        <v>3.044326862046428</v>
       </c>
       <c r="E25" t="n">
-        <v>13.446514818934968</v>
+        <v>3.737959728850338</v>
       </c>
       <c r="F25" t="n">
-        <v>2455.2142058989434</v>
+        <v>1392.4918501149357</v>
       </c>
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
       <c r="H25" t="n">
-        <v>7697.747558583627</v>
+        <v>4365.715823280001</v>
       </c>
       <c r="I25" t="n">
-        <v>-22.968841689035763</v>
+        <v>-22.964885513221063</v>
       </c>
       <c r="J25" t="n">
-        <v>-43.179567480098875</v>
+        <v>-43.17454795122795</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>4.130165617440906</v>
+        <v>3.1140137479782792</v>
       </c>
       <c r="E26" t="n">
-        <v>3.4164591233493606</v>
+        <v>1.9955694895152727</v>
       </c>
       <c r="F26" t="n">
-        <v>1601.7724531059084</v>
+        <v>1405.7457399164075</v>
       </c>
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
       <c r="H26" t="n">
-        <v>5021.891548502017</v>
+        <v>4407.271946622575</v>
       </c>
       <c r="I26" t="n">
-        <v>-22.965006789551055</v>
+        <v>-22.968785113146403</v>
       </c>
       <c r="J26" t="n">
-        <v>-43.180462700295145</v>
+        <v>-43.17947256440209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>6.449884912973174</v>
+        <v>1.539820376604124</v>
       </c>
       <c r="E27" t="n">
-        <v>8.08543072400715</v>
+        <v>0.5099667585500057</v>
       </c>
       <c r="F27" t="n">
-        <v>2068.6472617431436</v>
+        <v>1112.2768889824224</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
       </c>
       <c r="H27" t="n">
-        <v>6485.719627265837</v>
+        <v>3487.1308422471498</v>
       </c>
       <c r="I27" t="n">
-        <v>-22.974842967820834</v>
+        <v>-22.96437737183226</v>
       </c>
       <c r="J27" t="n">
-        <v>-43.19025455894283</v>
+        <v>-43.18130492625174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
       <c r="D28" t="n">
-        <v>8.8298</v>
+        <v>1.270165617440908</v>
       </c>
       <c r="E28" t="n">
-        <v>15.890314973660308</v>
+        <v>0.3539944730574692</v>
       </c>
       <c r="F28" t="n">
-        <v>1333.6961001189388</v>
+        <v>1063.2514655368811</v>
       </c>
       <c r="G28" t="n">
         <v>2.0</v>
       </c>
       <c r="H28" t="n">
-        <v>4181.439165317751</v>
+        <v>3333.416378614356</v>
       </c>
       <c r="I28" t="n">
-        <v>-22.964486632587935</v>
+        <v>-22.964995261160478</v>
       </c>
       <c r="J28" t="n">
-        <v>-43.1812108620652</v>
+        <v>-43.18043498800271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>9.316371265488211</v>
+        <v>2.8098849129731773</v>
       </c>
       <c r="E29" t="n">
-        <v>17.017338239530297</v>
+        <v>1.6461203959769832</v>
       </c>
       <c r="F29" t="n">
-        <v>2682.789600460385</v>
+        <v>1348.0813902519412</v>
       </c>
       <c r="G29" t="n">
         <v>2.0</v>
       </c>
       <c r="H29" t="n">
-        <v>8411.277375273185</v>
+        <v>4226.471630925916</v>
       </c>
       <c r="I29" t="n">
-        <v>-22.96885914088986</v>
+        <v>-22.97489609220093</v>
       </c>
       <c r="J29" t="n">
-        <v>-43.179596758558496</v>
+        <v>-43.19028469712146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>5.170165617440905</v>
+        <v>3.367555833633755</v>
       </c>
       <c r="E30" t="n">
-        <v>5.3286524514277</v>
+        <v>2.32517717084929</v>
       </c>
       <c r="F30" t="n">
-        <v>1807.7540401007063</v>
+        <v>1454.1726211365408</v>
       </c>
       <c r="G30" t="n">
         <v>2.0</v>
       </c>
       <c r="H30" t="n">
-        <v>5667.722119370257</v>
+        <v>4559.109086620187</v>
       </c>
       <c r="I30" t="n">
-        <v>-22.965013870102474</v>
+        <v>-22.970103690851758</v>
       </c>
       <c r="J30" t="n">
-        <v>-43.18047972073788</v>
+        <v>-43.19013326435496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>7.4898849129731735</v>
+        <v>3.634013747978279</v>
       </c>
       <c r="E31" t="n">
-        <v>10.925621083209474</v>
+        <v>2.696426429877366</v>
       </c>
       <c r="F31" t="n">
-        <v>2286.710153026344</v>
+        <v>1505.4133772278649</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" t="n">
-        <v>7169.426574791528</v>
+        <v>4719.7687281944045</v>
       </c>
       <c r="I31" t="n">
-        <v>-22.974820327598486</v>
+        <v>-22.968788538476524</v>
       </c>
       <c r="J31" t="n">
-        <v>-43.190241714838784</v>
+        <v>-43.17947831097715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>8.8298</v>
+        <v>3.5643268620464275</v>
       </c>
       <c r="E32" t="n">
-        <v>18.539547943130714</v>
+        <v>4.134827485042987</v>
       </c>
       <c r="F32" t="n">
-        <v>666.9832298645999</v>
+        <v>1491.9780196782317</v>
       </c>
       <c r="G32" t="n">
         <v>2.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2091.083811336222</v>
+        <v>4677.643681115082</v>
       </c>
       <c r="I32" t="n">
-        <v>-22.96450530332606</v>
+        <v>-22.96488264632401</v>
       </c>
       <c r="J32" t="n">
-        <v>-43.18119478815299</v>
+        <v>-43.17454199897565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
-        <v>10.09637126548821</v>
+        <v>2.059820376604124</v>
       </c>
       <c r="E33" t="n">
-        <v>19.9684765795906</v>
+        <v>0.8959736503845648</v>
       </c>
       <c r="F33" t="n">
-        <v>2857.0256670481326</v>
+        <v>1207.8452567906718</v>
       </c>
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
       <c r="H33" t="n">
-        <v>8957.568597790352</v>
+        <v>3786.77590913508</v>
       </c>
       <c r="I33" t="n">
-        <v>-22.96887356412897</v>
+        <v>-22.964380092254082</v>
       </c>
       <c r="J33" t="n">
-        <v>-43.1796209560003</v>
+        <v>-43.18130258420071</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>5.950165617440905</v>
+        <v>1.790165617440908</v>
       </c>
       <c r="E34" t="n">
-        <v>7.035815522007023</v>
+        <v>0.6860496937050575</v>
       </c>
       <c r="F34" t="n">
-        <v>1965.7947510134716</v>
+        <v>1158.1176403676136</v>
       </c>
       <c r="G34" t="n">
         <v>2.0</v>
       </c>
       <c r="H34" t="n">
-        <v>6163.238907521437</v>
+        <v>3630.8599840484762</v>
       </c>
       <c r="I34" t="n">
-        <v>-22.965020191459327</v>
+        <v>-22.964996490708675</v>
       </c>
       <c r="J34" t="n">
-        <v>-43.18049491620585</v>
+        <v>-43.18043794362769</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>8.269884912973174</v>
+        <v>3.329884912973177</v>
       </c>
       <c r="E35" t="n">
-        <v>13.32878665644886</v>
+        <v>2.2861505864310185</v>
       </c>
       <c r="F35" t="n">
-        <v>2453.8118421554113</v>
+        <v>1446.9570625602084</v>
       </c>
       <c r="G35" t="n">
         <v>2.0</v>
       </c>
       <c r="H35" t="n">
-        <v>7693.350645435798</v>
+        <v>4536.485504688762</v>
       </c>
       <c r="I35" t="n">
-        <v>-22.974801171065213</v>
+        <v>-22.974890990279786</v>
       </c>
       <c r="J35" t="n">
-        <v>-43.190230847078624</v>
+        <v>-43.19028180273266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>8.8298</v>
+        <v>3.887555833633755</v>
       </c>
       <c r="E36" t="n">
-        <v>21.188780771749254</v>
+        <v>3.0766767875336356</v>
       </c>
       <c r="F36" t="n">
-        <v>666.9832298645999</v>
+        <v>1554.5004933075825</v>
       </c>
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
       <c r="H36" t="n">
-        <v>2091.083811336222</v>
+        <v>4873.675785779307</v>
       </c>
       <c r="I36" t="n">
-        <v>-22.96452397406419</v>
+        <v>-22.970109448010543</v>
       </c>
       <c r="J36" t="n">
-        <v>-43.18117871424079</v>
+        <v>-43.19013711004233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1540,1150 +1714,1150 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>10.87637126548821</v>
+        <v>3.8940137479782786</v>
       </c>
       <c r="E37" t="n">
-        <v>23.15363266757129</v>
+        <v>3.0858579105327615</v>
       </c>
       <c r="F37" t="n">
-        <v>3034.3084656358806</v>
+        <v>1555.7549845502604</v>
       </c>
       <c r="G37" t="n">
         <v>2.0</v>
       </c>
       <c r="H37" t="n">
-        <v>9513.411700307519</v>
+        <v>4877.609098980319</v>
       </c>
       <c r="I37" t="n">
-        <v>-22.968889131095395</v>
+        <v>-22.968790441762803</v>
       </c>
       <c r="J37" t="n">
-        <v>-43.1796470722396</v>
+        <v>-43.17948150406427</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
-        <v>8.416632</v>
+        <v>4.084326862046427</v>
       </c>
       <c r="E38" t="n">
-        <v>15.853986595843898</v>
+        <v>4.676112241350941</v>
       </c>
       <c r="F38" t="n">
-        <v>666.2418988138734</v>
+        <v>1592.8182923526385</v>
       </c>
       <c r="G38" t="n">
         <v>2.0</v>
       </c>
       <c r="H38" t="n">
-        <v>2088.7558198761008</v>
+        <v>4993.816818950162</v>
       </c>
       <c r="I38" t="n">
-        <v>-22.97478104175091</v>
+        <v>-22.964879345342922</v>
       </c>
       <c r="J38" t="n">
-        <v>-43.190219427446635</v>
+        <v>-43.17453514547797</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>6.730165617440904</v>
+        <v>2.5798203766041237</v>
       </c>
       <c r="E39" t="n">
-        <v>8.976994053979528</v>
+        <v>1.3859920750000747</v>
       </c>
       <c r="F39" t="n">
-        <v>2126.8821939262366</v>
+        <v>1304.767727710032</v>
       </c>
       <c r="G39" t="n">
         <v>2.0</v>
       </c>
       <c r="H39" t="n">
-        <v>6668.307575672618</v>
+        <v>4090.666256023007</v>
       </c>
       <c r="I39" t="n">
-        <v>-22.965027379339</v>
+        <v>-22.964383545707516</v>
       </c>
       <c r="J39" t="n">
-        <v>-43.18051219464746</v>
+        <v>-43.181299611072006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>8.8298</v>
+        <v>2.3101656174409078</v>
       </c>
       <c r="E40" t="n">
-        <v>24.721090989561137</v>
+        <v>1.122111832006698</v>
       </c>
       <c r="F40" t="n">
-        <v>666.9832298645999</v>
+        <v>1254.3379183094567</v>
       </c>
       <c r="G40" t="n">
         <v>2.0</v>
       </c>
       <c r="H40" t="n">
-        <v>2091.083811336222</v>
+        <v>3932.548869482596</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.96454886838169</v>
+        <v>-22.964998105378122</v>
       </c>
       <c r="J40" t="n">
-        <v>-43.18115728235785</v>
+        <v>-43.18044182501873</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>11.916371265488209</v>
+        <v>3.8498849129731765</v>
       </c>
       <c r="E41" t="n">
-        <v>27.76453496188846</v>
+        <v>3.0301894302136287</v>
       </c>
       <c r="F41" t="n">
-        <v>3275.4248913084325</v>
+        <v>1547.1868379795862</v>
       </c>
       <c r="G41" t="n">
         <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>10269.394316997077</v>
+        <v>4850.744658451607</v>
       </c>
       <c r="I41" t="n">
-        <v>-22.96891166618201</v>
+        <v>-22.974885059266636</v>
       </c>
       <c r="J41" t="n">
-        <v>-43.179684878688114</v>
+        <v>-43.190278437988766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>7.770165617440903</v>
+        <v>4.407555833633754</v>
       </c>
       <c r="E42" t="n">
-        <v>11.929256095066062</v>
+        <v>3.932197340705733</v>
       </c>
       <c r="F42" t="n">
-        <v>2346.404812032146</v>
+        <v>1656.1824685897348</v>
       </c>
       <c r="G42" t="n">
         <v>2.0</v>
       </c>
       <c r="H42" t="n">
-        <v>7356.590946540859</v>
+        <v>5192.487764938425</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.965038311102944</v>
+        <v>-22.970116001890037</v>
       </c>
       <c r="J42" t="n">
-        <v>-43.18053847275084</v>
+        <v>-43.19014148792603</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>8.416632</v>
+        <v>4.414013747978278</v>
       </c>
       <c r="E43" t="n">
-        <v>19.22091997354362</v>
+        <v>3.9427268877014368</v>
       </c>
       <c r="F43" t="n">
-        <v>666.2418988138734</v>
+        <v>1657.4537765283844</v>
       </c>
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2088.7558198761008</v>
+        <v>5196.473800552146</v>
       </c>
       <c r="I43" t="n">
-        <v>-22.97475420266517</v>
+        <v>-22.968794629577797</v>
       </c>
       <c r="J43" t="n">
-        <v>-43.19020420127065</v>
+        <v>-43.17948852983766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
-        <v>8.8298</v>
+        <v>4.604326862046427</v>
       </c>
       <c r="E44" t="n">
-        <v>27.370323488802498</v>
+        <v>5.3642141760032365</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9832298645999</v>
+        <v>1695.0126681381566</v>
       </c>
       <c r="G44" t="n">
         <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>2091.083811336222</v>
+        <v>5314.235236785242</v>
       </c>
       <c r="I44" t="n">
-        <v>-22.96456753911982</v>
+        <v>-22.964875610277797</v>
       </c>
       <c r="J44" t="n">
-        <v>-43.181141208445645</v>
+        <v>-43.17452739073491</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D45" t="n">
-        <v>12.696371265488208</v>
+        <v>0.7364649151634252</v>
       </c>
       <c r="E45" t="n">
-        <v>31.495732234595273</v>
+        <v>0.12297116753039868</v>
       </c>
       <c r="F45" t="n">
-        <v>3459.816731229514</v>
+        <v>957.0718049458194</v>
       </c>
       <c r="G45" t="n">
         <v>2.0</v>
       </c>
       <c r="H45" t="n">
-        <v>10847.525139514244</v>
+        <v>3000.5009361405264</v>
       </c>
       <c r="I45" t="n">
-        <v>-22.968929901845506</v>
+        <v>-22.977780589117568</v>
       </c>
       <c r="J45" t="n">
-        <v>-43.179715472121586</v>
+        <v>-43.196274517853055</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>8.810165617440903</v>
+        <v>3.0998203766041232</v>
       </c>
       <c r="E46" t="n">
-        <v>15.297545485103898</v>
+        <v>1.980022028727007</v>
       </c>
       <c r="F46" t="n">
-        <v>2571.3438425824997</v>
+        <v>1403.0443017405034</v>
       </c>
       <c r="G46" t="n">
         <v>2.0</v>
       </c>
       <c r="H46" t="n">
-        <v>8061.855437409099</v>
+        <v>4398.801882910936</v>
       </c>
       <c r="I46" t="n">
-        <v>-22.9650507833519</v>
+        <v>-22.964387732192566</v>
       </c>
       <c r="J46" t="n">
-        <v>-43.180568453918475</v>
+        <v>-43.18129600686565</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D47" t="n">
-        <v>8.416632</v>
+        <v>2.5701656174409075</v>
       </c>
       <c r="E47" t="n">
-        <v>22.587853494573125</v>
+        <v>1.3791454943177301</v>
       </c>
       <c r="F47" t="n">
-        <v>666.2418988138734</v>
+        <v>1302.955845947045</v>
       </c>
       <c r="G47" t="n">
         <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>2088.7558198761008</v>
+        <v>4084.9852921996558</v>
       </c>
       <c r="I47" t="n">
-        <v>-22.97472736357943</v>
+        <v>-22.964999057133316</v>
       </c>
       <c r="J47" t="n">
-        <v>-43.19018897509468</v>
+        <v>-43.18044411287653</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>13.476371265488208</v>
+        <v>4.369884912973176</v>
       </c>
       <c r="E48" t="n">
-        <v>35.46094704905143</v>
+        <v>3.8782369299097055</v>
       </c>
       <c r="F48" t="n">
-        <v>3647.255303150595</v>
+        <v>1648.7707165100758</v>
       </c>
       <c r="G48" t="n">
         <v>2.0</v>
       </c>
       <c r="H48" t="n">
-        <v>11435.207842031412</v>
+        <v>5169.249092214453</v>
       </c>
       <c r="I48" t="n">
-        <v>-22.96894928123632</v>
+        <v>-22.974878299161485</v>
       </c>
       <c r="J48" t="n">
-        <v>-43.17974798435255</v>
+        <v>-43.19027460288977</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>8.8298</v>
+        <v>4.927555833633754</v>
       </c>
       <c r="E49" t="n">
-        <v>30.902633267444394</v>
+        <v>4.891732596854972</v>
       </c>
       <c r="F49" t="n">
-        <v>666.9832298645999</v>
+        <v>1759.2185469829985</v>
       </c>
       <c r="G49" t="n">
         <v>2.0</v>
       </c>
       <c r="H49" t="n">
-        <v>2091.083811336222</v>
+        <v>5515.545024097543</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.96459243343732</v>
+        <v>-22.970123352490248</v>
       </c>
       <c r="J49" t="n">
-        <v>-43.18111977656271</v>
+        <v>-43.19014639800606</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>8.416632</v>
+        <v>4.934013747978278</v>
       </c>
       <c r="E50" t="n">
-        <v>24.27132030881808</v>
+        <v>4.903603882369964</v>
       </c>
       <c r="F50" t="n">
-        <v>666.2418988138734</v>
+        <v>1760.5066716176193</v>
       </c>
       <c r="G50" t="n">
         <v>2.0</v>
       </c>
       <c r="H50" t="n">
-        <v>2088.7558198761008</v>
+        <v>5519.583782123973</v>
       </c>
       <c r="I50" t="n">
-        <v>-22.974713944036562</v>
+        <v>-22.968799325716045</v>
       </c>
       <c r="J50" t="n">
-        <v>-43.19018136200668</v>
+        <v>-43.17949640840995</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D51" t="n">
-        <v>9.590165617440903</v>
+        <v>4.864326862046426</v>
       </c>
       <c r="E51" t="n">
-        <v>18.096780417637014</v>
+        <v>5.762283518090918</v>
       </c>
       <c r="F51" t="n">
-        <v>2743.602636161931</v>
+        <v>1746.6176446975826</v>
       </c>
       <c r="G51" t="n">
         <v>2.0</v>
       </c>
       <c r="H51" t="n">
-        <v>8601.947665560281</v>
+        <v>5476.03642570278</v>
       </c>
       <c r="I51" t="n">
-        <v>-22.9650611484819</v>
+        <v>-22.964873579963722</v>
       </c>
       <c r="J51" t="n">
-        <v>-43.180593369930115</v>
+        <v>-43.17452317539637</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>8.416632</v>
+        <v>3.619820376604123</v>
       </c>
       <c r="E52" t="n">
-        <v>26.79652059754673</v>
+        <v>2.6780635088834095</v>
       </c>
       <c r="F52" t="n">
-        <v>666.2418988138734</v>
+        <v>1502.674978882086</v>
       </c>
       <c r="G52" t="n">
         <v>2.0</v>
       </c>
       <c r="H52" t="n">
-        <v>2088.7558198761008</v>
+        <v>4711.182789798865</v>
       </c>
       <c r="I52" t="n">
-        <v>-22.974693814722258</v>
+        <v>-22.96439265170923</v>
       </c>
       <c r="J52" t="n">
-        <v>-43.190169942374695</v>
+        <v>-43.18129177158162</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>10.110165617440902</v>
+        <v>3.090165617440907</v>
       </c>
       <c r="E53" t="n">
-        <v>20.092945534906914</v>
+        <v>1.971218002980216</v>
       </c>
       <c r="F53" t="n">
-        <v>2860.134460770441</v>
+        <v>1401.2072785555551</v>
       </c>
       <c r="G53" t="n">
         <v>2.0</v>
       </c>
       <c r="H53" t="n">
-        <v>8967.315750994401</v>
+        <v>4393.042097633776</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.965068539970137</v>
+        <v>-22.965001249484644</v>
       </c>
       <c r="J53" t="n">
-        <v>-43.18061113781213</v>
+        <v>-43.18044938291667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>14.256371265488207</v>
+        <v>4.629884912973176</v>
       </c>
       <c r="E54" t="n">
-        <v>39.66017933534338</v>
+        <v>4.341263926887668</v>
       </c>
       <c r="F54" t="n">
-        <v>3837.7406070716756</v>
+        <v>1700.0704444419866</v>
       </c>
       <c r="G54" t="n">
         <v>2.0</v>
       </c>
       <c r="H54" t="n">
-        <v>12032.442424548579</v>
+        <v>5330.0932890958775</v>
       </c>
       <c r="I54" t="n">
-        <v>-22.968969804354447</v>
+        <v>-22.974874608199407</v>
       </c>
       <c r="J54" t="n">
-        <v>-43.17978241538103</v>
+        <v>-43.190272508957115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D55" t="n">
-        <v>8.8298</v>
+        <v>1.2564649151634253</v>
       </c>
       <c r="E55" t="n">
-        <v>33.55186543730794</v>
+        <v>0.3482800843936638</v>
       </c>
       <c r="F55" t="n">
-        <v>666.9832298645999</v>
+        <v>1060.7702872019488</v>
       </c>
       <c r="G55" t="n">
         <v>2.0</v>
       </c>
       <c r="H55" t="n">
-        <v>2091.083811336222</v>
+        <v>3325.636881701698</v>
       </c>
       <c r="I55" t="n">
-        <v>-22.96461110417545</v>
+        <v>-22.977780448059445</v>
       </c>
       <c r="J55" t="n">
-        <v>-43.1811037026505</v>
+        <v>-43.19627671339104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>8.8298</v>
+        <v>5.454013747978277</v>
       </c>
       <c r="E56" t="n">
-        <v>36.201097465247905</v>
+        <v>5.968488885464294</v>
       </c>
       <c r="F56" t="n">
-        <v>666.9832298645999</v>
+        <v>1864.9136698179657</v>
       </c>
       <c r="G56" t="n">
         <v>2.0</v>
       </c>
       <c r="H56" t="n">
-        <v>2091.083811336222</v>
+        <v>5846.9390436958</v>
       </c>
       <c r="I56" t="n">
-        <v>-22.964629774913575</v>
+        <v>-22.968804530177543</v>
       </c>
       <c r="J56" t="n">
-        <v>-43.181087628738304</v>
+        <v>-43.17950513978113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>8.416632</v>
+        <v>5.4475558336337535</v>
       </c>
       <c r="E57" t="n">
-        <v>29.32172096655387</v>
+        <v>5.955279111145092</v>
       </c>
       <c r="F57" t="n">
-        <v>666.2418988138734</v>
+        <v>1863.6087284873731</v>
       </c>
       <c r="G57" t="n">
         <v>2.0</v>
       </c>
       <c r="H57" t="n">
-        <v>2088.7558198761008</v>
+        <v>5842.847563256663</v>
       </c>
       <c r="I57" t="n">
-        <v>-22.974673685407954</v>
+        <v>-22.97013149981117</v>
       </c>
       <c r="J57" t="n">
-        <v>-43.19015852274271</v>
+        <v>-43.19015184028241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D58" t="n">
-        <v>15.0</v>
+        <v>0.7286774313957978</v>
       </c>
       <c r="E58" t="n">
-        <v>45.58990597469695</v>
+        <v>0.12347311478867715</v>
       </c>
       <c r="F58" t="n">
-        <v>779.7638888888888</v>
+        <v>943.2666101844853</v>
       </c>
       <c r="G58" t="n">
         <v>2.0</v>
       </c>
       <c r="H58" t="n">
-        <v>2444.722222222222</v>
+        <v>2957.217163044427</v>
       </c>
       <c r="I58" t="n">
-        <v>-22.96899878500798</v>
+        <v>-22.974451400873882</v>
       </c>
       <c r="J58" t="n">
-        <v>-43.17983103536658</v>
+        <v>-43.188584797616244</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>11.150165617440901</v>
+        <v>4.139820376604122</v>
       </c>
       <c r="E59" t="n">
-        <v>24.39729609210185</v>
+        <v>3.4801165100423197</v>
       </c>
       <c r="F59" t="n">
-        <v>3097.260419320794</v>
+        <v>1603.6597591347797</v>
       </c>
       <c r="G59" t="n">
         <v>2.0</v>
       </c>
       <c r="H59" t="n">
-        <v>9710.787761862643</v>
+        <v>5027.808976686793</v>
       </c>
       <c r="I59" t="n">
-        <v>-22.965084478310363</v>
+        <v>-22.964398304257507</v>
       </c>
       <c r="J59" t="n">
-        <v>-43.18064945087434</v>
+        <v>-43.181286905219935</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>8.8298</v>
+        <v>5.714013747978277</v>
       </c>
       <c r="E60" t="n">
-        <v>39.733406616954525</v>
+        <v>6.539934387409685</v>
       </c>
       <c r="F60" t="n">
-        <v>666.9832298645999</v>
+        <v>1917.6249575848058</v>
       </c>
       <c r="G60" t="n">
         <v>2.0</v>
       </c>
       <c r="H60" t="n">
-        <v>2091.083811336222</v>
+        <v>6012.208654481714</v>
       </c>
       <c r="I60" t="n">
-        <v>-22.964654669231077</v>
+        <v>-22.968807323029512</v>
       </c>
       <c r="J60" t="n">
-        <v>-43.18106619685536</v>
+        <v>-43.179509825266294</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>8.416632</v>
+        <v>5.149884912973175</v>
       </c>
       <c r="E61" t="n">
-        <v>32.68865491751817</v>
+        <v>5.345324417373209</v>
       </c>
       <c r="F61" t="n">
-        <v>666.2418988138734</v>
+        <v>1803.6854776391426</v>
       </c>
       <c r="G61" t="n">
         <v>2.0</v>
       </c>
       <c r="H61" t="n">
-        <v>2088.7558198761008</v>
+        <v>5654.965642858722</v>
       </c>
       <c r="I61" t="n">
-        <v>-22.974646846322216</v>
+        <v>-22.97486660445625</v>
       </c>
       <c r="J61" t="n">
-        <v>-43.19014329656673</v>
+        <v>-43.19026796832547</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D62" t="n">
-        <v>15.0</v>
+        <v>1.7764649151634253</v>
       </c>
       <c r="E62" t="n">
-        <v>50.09024871365061</v>
+        <v>0.6775963569106667</v>
       </c>
       <c r="F62" t="n">
-        <v>779.7638888888888</v>
+        <v>1155.600784795031</v>
       </c>
       <c r="G62" t="n">
         <v>2.0</v>
       </c>
       <c r="H62" t="n">
-        <v>2444.722222222222</v>
+        <v>3622.968634602425</v>
       </c>
       <c r="I62" t="n">
-        <v>-22.969020779764055</v>
+        <v>-22.97778024188591</v>
       </c>
       <c r="J62" t="n">
-        <v>-43.179867935318526</v>
+        <v>-43.19627992243574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9301656174409</v>
+        <v>3.6101656174409067</v>
       </c>
       <c r="E63" t="n">
-        <v>27.894670909693787</v>
+        <v>2.667297420176745</v>
       </c>
       <c r="F63" t="n">
-        <v>3278.659408900226</v>
+        <v>1500.8128142751764</v>
       </c>
       <c r="G63" t="n">
         <v>2.0</v>
       </c>
       <c r="H63" t="n">
-        <v>10279.535630013823</v>
+        <v>4705.344183067895</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.965097483418024</v>
+        <v>-22.965003826957222</v>
       </c>
       <c r="J63" t="n">
-        <v>-43.180680554106765</v>
+        <v>-43.18045557872288</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>8.416632</v>
+        <v>5.707555833633753</v>
       </c>
       <c r="E64" t="n">
-        <v>35.21385547496409</v>
+        <v>6.526055921080756</v>
       </c>
       <c r="F64" t="n">
-        <v>666.2418988138734</v>
+        <v>1916.3116079062272</v>
       </c>
       <c r="G64" t="n">
         <v>2.0</v>
       </c>
       <c r="H64" t="n">
-        <v>2088.7558198761008</v>
+        <v>6008.090812836221</v>
       </c>
       <c r="I64" t="n">
-        <v>-22.97462671700791</v>
+        <v>-22.9701358722419</v>
       </c>
       <c r="J64" t="n">
-        <v>-43.19013187693474</v>
+        <v>-43.19015476099422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D65" t="n">
-        <v>15.0</v>
+        <v>0.9586292930792678</v>
       </c>
       <c r="E65" t="n">
-        <v>54.590590936635195</v>
+        <v>0.21933673664562064</v>
       </c>
       <c r="F65" t="n">
-        <v>779.7638888888888</v>
+        <v>983.1168149156227</v>
       </c>
       <c r="G65" t="n">
         <v>2.0</v>
       </c>
       <c r="H65" t="n">
-        <v>2444.722222222222</v>
+        <v>3082.1639130839094</v>
       </c>
       <c r="I65" t="n">
-        <v>-22.96904277452013</v>
+        <v>-22.974451869283307</v>
       </c>
       <c r="J65" t="n">
-        <v>-43.17990483527047</v>
+        <v>-43.18858401148661</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
-        <v>8.8298</v>
+        <v>5.644326862046426</v>
       </c>
       <c r="E66" t="n">
-        <v>42.38263831627724</v>
+        <v>7.163472696829421</v>
       </c>
       <c r="F66" t="n">
-        <v>666.9832298645999</v>
+        <v>1903.4637290425262</v>
       </c>
       <c r="G66" t="n">
         <v>2.0</v>
       </c>
       <c r="H66" t="n">
-        <v>2091.083811336222</v>
+        <v>5967.807912455401</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.964673339969206</v>
+        <v>-22.964866837895443</v>
       </c>
       <c r="J66" t="n">
-        <v>-43.181050122943155</v>
+        <v>-43.174509177512675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>12.7101656174409</v>
+        <v>5.967555833633753</v>
       </c>
       <c r="E67" t="n">
-        <v>31.60579703479368</v>
+        <v>7.122834853254061</v>
       </c>
       <c r="F67" t="n">
-        <v>3463.105130479658</v>
+        <v>1969.3530131028592</v>
       </c>
       <c r="G67" t="n">
         <v>2.0</v>
       </c>
       <c r="H67" t="n">
-        <v>10857.835378165</v>
+        <v>6174.395382415781</v>
       </c>
       <c r="I67" t="n">
-        <v>-22.96511156501591</v>
+        <v>-22.97014044385281</v>
       </c>
       <c r="J67" t="n">
-        <v>-43.18071341971707</v>
+        <v>-43.1901578147551</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>8.8298</v>
+        <v>5.409884912973175</v>
       </c>
       <c r="E68" t="n">
-        <v>45.91494702835989</v>
+        <v>5.886357911534211</v>
       </c>
       <c r="F68" t="n">
-        <v>666.9832298645999</v>
+        <v>1856.0007829043873</v>
       </c>
       <c r="G68" t="n">
         <v>2.0</v>
       </c>
       <c r="H68" t="n">
-        <v>2091.083811336222</v>
+        <v>5818.993799740145</v>
       </c>
       <c r="I68" t="n">
-        <v>-22.964698234286708</v>
+        <v>-22.97486229167517</v>
       </c>
       <c r="J68" t="n">
-        <v>-43.18102869106022</v>
+        <v>-43.19026552162649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D69" t="n">
-        <v>15.0</v>
+        <v>2.0364649151634255</v>
       </c>
       <c r="E69" t="n">
-        <v>60.59104643173546</v>
+        <v>0.8812572514059784</v>
       </c>
       <c r="F69" t="n">
-        <v>779.7638888888888</v>
+        <v>1203.5238222582386</v>
       </c>
       <c r="G69" t="n">
         <v>2.0</v>
       </c>
       <c r="H69" t="n">
-        <v>2444.722222222222</v>
+        <v>3773.2264910527897</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.969072100861563</v>
+        <v>-22.977780114380863</v>
       </c>
       <c r="J69" t="n">
-        <v>-43.1799540352064</v>
+        <v>-43.196281907023106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D70" t="n">
-        <v>8.416632</v>
+        <v>1.218629293079268</v>
       </c>
       <c r="E70" t="n">
-        <v>38.580789676394055</v>
+        <v>0.34120054632510366</v>
       </c>
       <c r="F70" t="n">
-        <v>666.2418988138734</v>
+        <v>1053.9231904467022</v>
       </c>
       <c r="G70" t="n">
         <v>2.0</v>
       </c>
       <c r="H70" t="n">
-        <v>2088.7558198761008</v>
+        <v>3304.1684645699575</v>
       </c>
       <c r="I70" t="n">
-        <v>-22.974599877922174</v>
+        <v>-22.974452464735016</v>
       </c>
       <c r="J70" t="n">
-        <v>-43.19011665075877</v>
+        <v>-43.18858301214244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>13.7501656174409</v>
+        <v>4.659820376604122</v>
       </c>
       <c r="E71" t="n">
-        <v>36.91698065274955</v>
+        <v>4.386181028525828</v>
       </c>
       <c r="F71" t="n">
-        <v>3713.772120141122</v>
+        <v>1705.9986424985848</v>
       </c>
       <c r="G71" t="n">
         <v>2.0</v>
       </c>
       <c r="H71" t="n">
-        <v>11643.76018903324</v>
+        <v>5348.680443574723</v>
       </c>
       <c r="I71" t="n">
-        <v>-22.965131730492406</v>
+        <v>-22.9644046898374</v>
       </c>
       <c r="J71" t="n">
-        <v>-43.18076044843409</v>
+        <v>-43.181281407780574</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D72" t="n">
-        <v>8.8298</v>
+        <v>4.130165617440906</v>
       </c>
       <c r="E72" t="n">
-        <v>48.564178398303234</v>
+        <v>3.4673837404673993</v>
       </c>
       <c r="F72" t="n">
-        <v>666.9832298645999</v>
+        <v>1601.7724531059084</v>
       </c>
       <c r="G72" t="n">
         <v>2.0</v>
       </c>
       <c r="H72" t="n">
-        <v>2091.083811336222</v>
+        <v>5021.891548502017</v>
       </c>
       <c r="I72" t="n">
-        <v>-22.964716905024837</v>
+        <v>-22.965006789551055</v>
       </c>
       <c r="J72" t="n">
-        <v>-43.18101261714801</v>
+        <v>-43.180462700295145</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -2692,254 +2866,254 @@
         <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>15.0</v>
+        <v>6.234013747978277</v>
       </c>
       <c r="E73" t="n">
-        <v>65.09138745078995</v>
+        <v>7.760831388036122</v>
       </c>
       <c r="F73" t="n">
-        <v>779.7638888888888</v>
+        <v>2024.0631104518188</v>
       </c>
       <c r="G73" t="n">
         <v>2.0</v>
       </c>
       <c r="H73" t="n">
-        <v>2444.722222222222</v>
+        <v>6345.931836053542</v>
       </c>
       <c r="I73" t="n">
-        <v>-22.96909409561764</v>
+        <v>-22.968813289975888</v>
       </c>
       <c r="J73" t="n">
-        <v>-43.179990935158344</v>
+        <v>-43.179519835835805</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>8.416632</v>
+        <v>6.164326862046425</v>
       </c>
       <c r="E74" t="n">
-        <v>41.1059904219416</v>
+        <v>8.262080389891846</v>
       </c>
       <c r="F74" t="n">
-        <v>666.2418988138734</v>
+        <v>2009.720414161378</v>
       </c>
       <c r="G74" t="n">
         <v>2.0</v>
       </c>
       <c r="H74" t="n">
-        <v>2088.7558198761008</v>
+        <v>6300.962170290481</v>
       </c>
       <c r="I74" t="n">
-        <v>-22.97457974860787</v>
+        <v>-22.96486180057821</v>
       </c>
       <c r="J74" t="n">
-        <v>-43.19010523112678</v>
+        <v>-43.174498719033494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>14.530165617440899</v>
+        <v>5.929884912973175</v>
       </c>
       <c r="E75" t="n">
-        <v>41.19657990605706</v>
+        <v>7.046431401384173</v>
       </c>
       <c r="F75" t="n">
-        <v>3905.3268830538873</v>
+        <v>1961.6469707682097</v>
       </c>
       <c r="G75" t="n">
         <v>2.0</v>
       </c>
       <c r="H75" t="n">
-        <v>12244.347657184424</v>
+        <v>6150.234073502991</v>
       </c>
       <c r="I75" t="n">
-        <v>-22.96514822787681</v>
+        <v>-22.974853044294004</v>
       </c>
       <c r="J75" t="n">
-        <v>-43.180798219004444</v>
+        <v>-43.19026027546221</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>15.0</v>
+        <v>6.487555833633753</v>
       </c>
       <c r="E76" t="n">
-        <v>69.59172795365876</v>
+        <v>8.394398559572313</v>
       </c>
       <c r="F76" t="n">
-        <v>779.7638888888888</v>
+        <v>2076.4514008294564</v>
       </c>
       <c r="G76" t="n">
         <v>2.0</v>
       </c>
       <c r="H76" t="n">
-        <v>2444.722222222222</v>
+        <v>6510.1884815749</v>
       </c>
       <c r="I76" t="n">
-        <v>-22.96911609037371</v>
+        <v>-22.97015018461516</v>
       </c>
       <c r="J76" t="n">
-        <v>-43.18002783511029</v>
+        <v>-43.19016432142413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
-        <v>8.8298</v>
+        <v>4.919820376604122</v>
       </c>
       <c r="E77" t="n">
-        <v>51.21340962632232</v>
+        <v>4.878217604162382</v>
       </c>
       <c r="F77" t="n">
-        <v>666.9832298645999</v>
+        <v>1757.6758728471536</v>
       </c>
       <c r="G77" t="n">
         <v>2.0</v>
       </c>
       <c r="H77" t="n">
-        <v>2091.083811336222</v>
+        <v>5510.708157018687</v>
       </c>
       <c r="I77" t="n">
-        <v>-22.964735575762962</v>
+        <v>-22.964408157514203</v>
       </c>
       <c r="J77" t="n">
-        <v>-43.180996543235814</v>
+        <v>-43.18127842240678</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D78" t="n">
-        <v>8.416632</v>
+        <v>2.556464915163425</v>
       </c>
       <c r="E78" t="n">
-        <v>43.63119124810401</v>
+        <v>1.3665845579621017</v>
       </c>
       <c r="F78" t="n">
-        <v>666.2418988138734</v>
+        <v>1300.3854745179863</v>
       </c>
       <c r="G78" t="n">
         <v>2.0</v>
       </c>
       <c r="H78" t="n">
-        <v>2088.7558198761008</v>
+        <v>4076.9261639535143</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.974559619293565</v>
+        <v>-22.977779810534212</v>
       </c>
       <c r="J78" t="n">
-        <v>-43.19009381149479</v>
+        <v>-43.19628663632787</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>15.0</v>
+        <v>1.738629293079268</v>
       </c>
       <c r="E79" t="n">
-        <v>47.17371219801309</v>
+        <v>0.6629287270579695</v>
       </c>
       <c r="F79" t="n">
-        <v>779.7638888888888</v>
+        <v>1148.6551623982932</v>
       </c>
       <c r="G79" t="n">
         <v>2.0</v>
       </c>
       <c r="H79" t="n">
-        <v>2444.722222222222</v>
+        <v>3601.1913274519898</v>
       </c>
       <c r="I79" t="n">
-        <v>-22.96517126851913</v>
+        <v>-22.97445403676527</v>
       </c>
       <c r="J79" t="n">
-        <v>-43.18085097028796</v>
+        <v>-43.18858037381047</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>8.8298</v>
+        <v>6.684326862046425</v>
       </c>
       <c r="E80" t="n">
-        <v>54.74571771177633</v>
+        <v>9.485665411328574</v>
       </c>
       <c r="F80" t="n">
-        <v>666.9832298645999</v>
+        <v>2117.33120239134</v>
       </c>
       <c r="G80" t="n">
         <v>2.0</v>
       </c>
       <c r="H80" t="n">
-        <v>2091.083811336222</v>
+        <v>6638.36170812556</v>
       </c>
       <c r="I80" t="n">
-        <v>-22.964760470080467</v>
+        <v>-22.96485632917694</v>
       </c>
       <c r="J80" t="n">
-        <v>-43.18097511135287</v>
+        <v>-43.17448735930894</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -2948,633 +3122,1945 @@
         <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>15.0</v>
+        <v>6.754013747978276</v>
       </c>
       <c r="E81" t="n">
-        <v>75.59218115494406</v>
+        <v>9.085736375201435</v>
       </c>
       <c r="F81" t="n">
-        <v>779.7638888888888</v>
+        <v>2131.8553664299425</v>
       </c>
       <c r="G81" t="n">
         <v>2.0</v>
       </c>
       <c r="H81" t="n">
-        <v>2444.722222222222</v>
+        <v>6683.900297625369</v>
       </c>
       <c r="I81" t="n">
-        <v>-22.969145416715143</v>
+        <v>-22.968819765245517</v>
       </c>
       <c r="J81" t="n">
-        <v>-43.18007703504621</v>
+        <v>-43.17953069920421</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>8.416632</v>
+        <v>4.650165617440906</v>
       </c>
       <c r="E82" t="n">
-        <v>46.998125808159045</v>
+        <v>4.371476959337713</v>
       </c>
       <c r="F82" t="n">
-        <v>666.2418988138734</v>
+        <v>1704.086195047752</v>
       </c>
       <c r="G82" t="n">
         <v>2.0</v>
       </c>
       <c r="H82" t="n">
-        <v>2088.7558198761008</v>
+        <v>5342.684193936137</v>
       </c>
       <c r="I82" t="n">
-        <v>-22.974532780207827</v>
+        <v>-22.965010137266137</v>
       </c>
       <c r="J82" t="n">
-        <v>-43.19007858531881</v>
+        <v>-43.180470747633485</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>15.0</v>
+        <v>6.449884912973174</v>
       </c>
       <c r="E83" t="n">
-        <v>53.171936113703346</v>
+        <v>8.310513563004054</v>
       </c>
       <c r="F83" t="n">
-        <v>779.7638888888888</v>
+        <v>2068.6472617431436</v>
       </c>
       <c r="G83" t="n">
         <v>2.0</v>
       </c>
       <c r="H83" t="n">
-        <v>2444.722222222222</v>
+        <v>6485.719627265837</v>
       </c>
       <c r="I83" t="n">
-        <v>-22.965194390022894</v>
+        <v>-22.974842967820834</v>
       </c>
       <c r="J83" t="n">
-        <v>-43.18090390670281</v>
+        <v>-43.19025455894283</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>8.416632</v>
+        <v>7.007555833633752</v>
       </c>
       <c r="E84" t="n">
-        <v>50.36506051154249</v>
+        <v>9.769969410015435</v>
       </c>
       <c r="F84" t="n">
-        <v>666.2418988138734</v>
+        <v>2184.903891667164</v>
       </c>
       <c r="G84" t="n">
         <v>2.0</v>
       </c>
       <c r="H84" t="n">
-        <v>2088.7558198761008</v>
+        <v>6850.226860734018</v>
       </c>
       <c r="I84" t="n">
-        <v>-22.974505941122086</v>
+        <v>-22.97016072209823</v>
       </c>
       <c r="J84" t="n">
-        <v>-43.19006335914283</v>
+        <v>-43.190171360289476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D85" t="n">
-        <v>8.8298</v>
+        <v>2.258629293079268</v>
       </c>
       <c r="E85" t="n">
-        <v>58.27802554551234</v>
+        <v>1.0886576544294166</v>
       </c>
       <c r="F85" t="n">
-        <v>666.9832298645999</v>
+        <v>1244.741237460996</v>
       </c>
       <c r="G85" t="n">
         <v>2.0</v>
       </c>
       <c r="H85" t="n">
-        <v>2091.083811336222</v>
+        <v>3902.4594703340226</v>
       </c>
       <c r="I85" t="n">
-        <v>-22.96478536439797</v>
+        <v>-22.974456116964642</v>
       </c>
       <c r="J85" t="n">
-        <v>-43.18095367946994</v>
+        <v>-43.18857688262033</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D86" t="n">
-        <v>15.0</v>
+        <v>0.7575885738538097</v>
       </c>
       <c r="E86" t="n">
-        <v>81.59263343955593</v>
+        <v>0.12568193236548775</v>
       </c>
       <c r="F86" t="n">
-        <v>779.7638888888888</v>
+        <v>970.1200619782722</v>
       </c>
       <c r="G86" t="n">
         <v>2.0</v>
       </c>
       <c r="H86" t="n">
-        <v>2444.722222222222</v>
+        <v>3041.411690590859</v>
       </c>
       <c r="I86" t="n">
-        <v>-22.969174743056577</v>
+        <v>-22.96666699506671</v>
       </c>
       <c r="J86" t="n">
-        <v>-43.18012623498214</v>
+        <v>-43.17836557769016</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
-        <v>15.0</v>
+        <v>5.439820376604121</v>
       </c>
       <c r="E87" t="n">
-        <v>57.65679094080241</v>
+        <v>5.9402993864822955</v>
       </c>
       <c r="F87" t="n">
-        <v>779.7638888888888</v>
+        <v>1862.0459108776251</v>
       </c>
       <c r="G87" t="n">
         <v>2.0</v>
       </c>
       <c r="H87" t="n">
-        <v>2444.722222222222</v>
+        <v>5837.9475439066155</v>
       </c>
       <c r="I87" t="n">
-        <v>-22.965211861061487</v>
+        <v>-22.96441564264152</v>
       </c>
       <c r="J87" t="n">
-        <v>-43.18094339454776</v>
+        <v>-43.18127197835092</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D88" t="n">
-        <v>8.416632</v>
+        <v>3.0764649151634247</v>
       </c>
       <c r="E88" t="n">
-        <v>52.89026163294202</v>
+        <v>1.9559192223350819</v>
       </c>
       <c r="F88" t="n">
-        <v>666.2418988138734</v>
+        <v>1398.6012298888454</v>
       </c>
       <c r="G88" t="n">
         <v>2.0</v>
       </c>
       <c r="H88" t="n">
-        <v>2088.7558198761008</v>
+        <v>4384.871116854241</v>
       </c>
       <c r="I88" t="n">
-        <v>-22.974485811807785</v>
+        <v>-22.977779441572153</v>
       </c>
       <c r="J88" t="n">
-        <v>-43.190051939510845</v>
+        <v>-43.19629237913935</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>15.0</v>
+        <v>0.7750736187477596</v>
       </c>
       <c r="E89" t="n">
-        <v>86.09297205074107</v>
+        <v>0.12900238136530243</v>
       </c>
       <c r="F89" t="n">
-        <v>779.7638888888888</v>
+        <v>974.1877449504518</v>
       </c>
       <c r="G89" t="n">
         <v>2.0</v>
       </c>
       <c r="H89" t="n">
-        <v>2444.722222222222</v>
+        <v>3054.1654494510067</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.969196737812652</v>
+        <v>-22.966432365842746</v>
       </c>
       <c r="J89" t="n">
-        <v>-43.180163134934084</v>
+        <v>-43.1802243645611</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>8.8298</v>
+        <v>7.274013747978276</v>
       </c>
       <c r="E90" t="n">
-        <v>60.92725625638547</v>
+        <v>10.514649337548539</v>
       </c>
       <c r="F90" t="n">
-        <v>666.9832298645999</v>
+        <v>2241.001725519178</v>
       </c>
       <c r="G90" t="n">
         <v>2.0</v>
       </c>
       <c r="H90" t="n">
-        <v>2091.083811336222</v>
+        <v>7026.114039197196</v>
       </c>
       <c r="I90" t="n">
-        <v>-22.964804035136094</v>
+        <v>-22.968826748838396</v>
       </c>
       <c r="J90" t="n">
-        <v>-43.18093760555773</v>
+        <v>-43.17954241537149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>15.0</v>
+        <v>5.170165617440905</v>
       </c>
       <c r="E91" t="n">
-        <v>62.105845501945424</v>
+        <v>5.379577068545737</v>
       </c>
       <c r="F91" t="n">
-        <v>779.7638888888888</v>
+        <v>1807.7540401007063</v>
       </c>
       <c r="G91" t="n">
         <v>2.0</v>
       </c>
       <c r="H91" t="n">
-        <v>2444.722222222222</v>
+        <v>5667.722119370257</v>
       </c>
       <c r="I91" t="n">
-        <v>-22.96522966912262</v>
+        <v>-22.965013870102474</v>
       </c>
       <c r="J91" t="n">
-        <v>-43.18098232601131</v>
+        <v>-43.18047972073788</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>8.416632</v>
+        <v>7.2043268620464245</v>
       </c>
       <c r="E92" t="n">
-        <v>55.41546283530623</v>
+        <v>10.829730018867556</v>
       </c>
       <c r="F92" t="n">
-        <v>666.2418988138734</v>
+        <v>2226.296093732414</v>
       </c>
       <c r="G92" t="n">
         <v>2.0</v>
       </c>
       <c r="H92" t="n">
-        <v>2088.7558198761008</v>
+        <v>6980.00652596064</v>
       </c>
       <c r="I92" t="n">
-        <v>-22.97446568249348</v>
+        <v>-22.964850423691633</v>
       </c>
       <c r="J92" t="n">
-        <v>-43.190040519878856</v>
+        <v>-43.17447509833901</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
-        <v>8.8298</v>
+        <v>6.969884912973174</v>
       </c>
       <c r="E93" t="n">
-        <v>63.57648682640483</v>
+        <v>9.678604401703714</v>
       </c>
       <c r="F93" t="n">
-        <v>666.9832298645999</v>
+        <v>2177.0016558291886</v>
       </c>
       <c r="G93" t="n">
         <v>2.0</v>
       </c>
       <c r="H93" t="n">
-        <v>2091.083811336222</v>
+        <v>6825.450461028682</v>
       </c>
       <c r="I93" t="n">
-        <v>-22.964822705874223</v>
+        <v>-22.97483206225566</v>
       </c>
       <c r="J93" t="n">
-        <v>-43.180921531645524</v>
+        <v>-43.19024837206835</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
-        <v>15.0</v>
+        <v>7.527555833633752</v>
       </c>
       <c r="E94" t="n">
-        <v>90.59331014595257</v>
+        <v>11.249546852492013</v>
       </c>
       <c r="F94" t="n">
-        <v>779.7638888888888</v>
+        <v>2294.710485615983</v>
       </c>
       <c r="G94" t="n">
         <v>2.0</v>
       </c>
       <c r="H94" t="n">
-        <v>2444.722222222222</v>
+        <v>7194.510519893136</v>
       </c>
       <c r="I94" t="n">
-        <v>-22.969218732568727</v>
+        <v>-22.970172056302008</v>
       </c>
       <c r="J94" t="n">
-        <v>-43.18020003488603</v>
+        <v>-43.19017893135116</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D95" t="n">
-        <v>15.0</v>
+        <v>2.778629293079268</v>
       </c>
       <c r="E95" t="n">
-        <v>68.04770452349192</v>
+        <v>1.6183873246586933</v>
       </c>
       <c r="F95" t="n">
-        <v>779.7638888888888</v>
+        <v>1342.1814156348091</v>
       </c>
       <c r="G95" t="n">
         <v>2.0</v>
       </c>
       <c r="H95" t="n">
-        <v>2444.722222222222</v>
+        <v>4207.972893216053</v>
       </c>
       <c r="I95" t="n">
-        <v>-22.965253603466177</v>
+        <v>-22.974458705333138</v>
       </c>
       <c r="J95" t="n">
-        <v>-43.181034239978615</v>
+        <v>-43.18857253857204</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D96" t="n">
-        <v>8.416632</v>
+        <v>1.2775885738538098</v>
       </c>
       <c r="E96" t="n">
-        <v>58.78239789697655</v>
+        <v>0.3552256418152751</v>
       </c>
       <c r="F96" t="n">
-        <v>666.2418988138734</v>
+        <v>1064.5961453415591</v>
       </c>
       <c r="G96" t="n">
         <v>2.0</v>
       </c>
       <c r="H96" t="n">
-        <v>2088.7558198761008</v>
+        <v>3337.6324931789404</v>
       </c>
       <c r="I96" t="n">
-        <v>-22.97443884340774</v>
+        <v>-22.966665962653597</v>
       </c>
       <c r="J96" t="n">
-        <v>-43.19002529370288</v>
+        <v>-43.17836363616315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
-        <v>15.0</v>
+        <v>6.219820376604121</v>
       </c>
       <c r="E97" t="n">
-        <v>96.59740349811675</v>
+        <v>7.728443621896663</v>
       </c>
       <c r="F97" t="n">
-        <v>779.7638888888888</v>
+        <v>2021.1399112566655</v>
       </c>
       <c r="G97" t="n">
         <v>2.0</v>
       </c>
       <c r="H97" t="n">
-        <v>2444.722222222222</v>
+        <v>6336.766524238509</v>
       </c>
       <c r="I97" t="n">
-        <v>-22.969248080221554</v>
+        <v>-22.96442824476677</v>
       </c>
       <c r="J97" t="n">
-        <v>-43.18024926223074</v>
+        <v>-43.18126112899652</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D98" t="n">
-        <v>8.8298</v>
+        <v>1.2950736187477596</v>
       </c>
       <c r="E98" t="n">
-        <v>67.10879403274829</v>
+        <v>0.36199481402280265</v>
       </c>
       <c r="F98" t="n">
-        <v>666.9832298645999</v>
+        <v>1067.7646782124984</v>
       </c>
       <c r="G98" t="n">
         <v>2.0</v>
       </c>
       <c r="H98" t="n">
-        <v>2091.083811336222</v>
+        <v>3347.5671238077966</v>
       </c>
       <c r="I98" t="n">
-        <v>-22.964847600191725</v>
+        <v>-22.966430533194092</v>
       </c>
       <c r="J98" t="n">
-        <v>-43.18090009976259</v>
+        <v>-43.180225467836536</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D99" t="n">
-        <v>15.0</v>
+        <v>3.856464915163424</v>
       </c>
       <c r="E99" t="n">
-        <v>72.54412106050982</v>
+        <v>3.0349350143728064</v>
       </c>
       <c r="F99" t="n">
-        <v>779.7638888888888</v>
+        <v>1548.463806278468</v>
       </c>
       <c r="G99" t="n">
         <v>2.0</v>
       </c>
       <c r="H99" t="n">
-        <v>2444.722222222222</v>
+        <v>4854.748446205332</v>
       </c>
       <c r="I99" t="n">
-        <v>-22.965272350324774</v>
+        <v>-22.97777876603767</v>
       </c>
       <c r="J99" t="n">
-        <v>-43.18107319783654</v>
+        <v>-43.19630289368165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>8.416632</v>
+        <v>7.794013747978275</v>
       </c>
       <c r="E100" t="n">
-        <v>60.465865481541236</v>
+        <v>12.047570264329554</v>
       </c>
       <c r="F100" t="n">
-        <v>666.2418988138734</v>
+        <v>2351.5021877195245</v>
       </c>
       <c r="G100" t="n">
         <v>2.0</v>
       </c>
       <c r="H100" t="n">
-        <v>2088.7558198761008</v>
+        <v>7372.573060769023</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.974425423864872</v>
+        <v>-22.968834240754525</v>
       </c>
       <c r="J100" t="n">
-        <v>-43.190017680614886</v>
+        <v>-43.17955498433767</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5.690165617440905</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.491684062763806</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1912.775988264772</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5997.005324804378</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-22.965017988060062</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-43.180489619608345</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.724326862046424</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.316624718606954</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2336.615088184599</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7325.896623795719</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-22.964844462931634</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-43.17446158701002</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.4898849129731735</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.150703922206375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2286.710153026344</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7169.426574791528</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-22.974820327598486</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-43.190241714838784</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.7975885738538098</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.6887811321868356</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1159.4816498806997</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3635.1366996292163</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-22.96666446242926</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-43.178360814883526</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.2986292930792676</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.252117734540985</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1440.9756969197335</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4517.731596098085</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-22.974461801870753</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-43.188567341665575</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.047555833633751</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12.83313050184742</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2405.8711826759136</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7543.039459052256</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-22.9701841872265</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-43.190187034609174</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.4798203766041205</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.376497446888859</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2074.8482962719013</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6505.162157682473</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-22.964432811990996</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-43.18125719700622</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.116464915163424</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.4466106252251008</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1599.095049963898</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5013.496862655695</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-22.977778508301803</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-43.19630690528244</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.5550736187477596</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5174872996580737</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1115.0609335101885</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3495.8599409861918</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-22.9664293101368</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-43.180226204131</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.210165617440905</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.707797932936763</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2019.1520395399489</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6330.533810238498</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-22.965022491138903</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-43.18050044424487</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.768671408322407</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.12773039654472854</v>
+      </c>
+      <c r="F111" t="n">
+        <v>973.0440695206441</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3050.5795603044453</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-22.96537816059407</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-43.17305907609832</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.244326862046425</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.91823492483324</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2448.2881857479015</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7676.03200163082</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-22.96483811896994</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-43.17444712754209</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.314013747978276</v>
+      </c>
+      <c r="E113" t="n">
+        <v>13.684499143573866</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2463.3567530309815</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7723.277362340852</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-22.968842240993908</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-43.17956840610274</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.749884912973173</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.92575694053524</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2342.072190291589</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7343.006611672952</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-22.974814149360395</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-43.190238209840835</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.567555833633751</v>
+      </c>
+      <c r="E115" t="n">
+        <v>14.520720084008655</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2518.385982846955</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>7895.813678211373</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-22.97019711487171</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-43.190195670063524</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.636464915163423</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.347967366612357</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1701.3731146680905</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5334.177655556423</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-22.977777943993512</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-43.19631568861406</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.99982037660412</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.75061370937654</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2183.2806436357064</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6845.137384570402</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-22.964442496213152</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-43.18124885971737</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.0750736187477594</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9064648114216287</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1210.6690214389014</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3795.6295353429805</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-22.966426250556278</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-43.18022804603345</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.3175885738538096</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.126348406274181</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1255.7212575309516</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3936.886186079491</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-22.9666624943937</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-43.17835711385129</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.818629293079267</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.9898488778165273</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1541.1240813157697</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4831.735578980117</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-22.974465406577487</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-43.18856129190095</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.730165617440904</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.027918671097565</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2126.8821939262366</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>6668.307575672618</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-22.965027379339</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-43.18051219464746</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.764326862046424</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.63119823194102</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2561.315386422302</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8030.412659465879</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-22.964831368460647</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-43.17443174145098</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8.834013747978275</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.425435962054712</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2576.5654214535507</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8078.2269439126785</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-22.96885074955654</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-43.1795826806667</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.028671408322407</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.23059440864906536</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1019.6549374425334</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3343.928967015323</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-22.965377327573236</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-43.17305951303023</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.269884912973174</v>
+      </c>
+      <c r="E125" t="n">
+        <v>13.553869495445754</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2453.8118421554113</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>7693.350645435798</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-22.974801171065213</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-43.190230847078624</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.7587739893127295</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.12576165774746478</v>
+      </c>
+      <c r="F126" t="n">
+        <v>971.2764223969547</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3045.037265172274</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-22.972851800681948</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-43.19127993008687</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.837588573853809</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.667927467483397</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1353.3149682923145</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4242.880952529766</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-22.96666005854691</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-43.178352533066445</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>113</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.595073618747759</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.3994323777866753</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1307.6312124787257</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4099.64440969977</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-22.966422373021178</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-43.1802303803539</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.338629293079267</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.8315807498414505</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1642.6265688229162</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5149.98484186215</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-22.97446951945334</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-43.18855438927816</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.156464915163423</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.353331468654372</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1805.0052824833945</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5659.1037284571485</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-22.977777314569813</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-43.19632548545238</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.51982037660412</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.228741449241468</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2293.067094110622</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7189.357891458331</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-22.96445291346693</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-43.18123989135086</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.08755583363375</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16.31231539610877</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2632.254886129107</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>8252.833177370492</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-22.97021083923763</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-43.190204837714205</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.990165617440904</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.726981612279051</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2181.255059786047</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6838.786438389679</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-22.965029967859515</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-43.18051841701103</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.284326862046424</v>
+      </c>
+      <c r="E134" t="n">
+        <v>17.454248549549852</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2675.6966902078207</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8389.038597300958</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-22.96482421140376</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-43.174415428736694</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.354013747978275</v>
+      </c>
+      <c r="E135" t="n">
+        <v>17.270380705537278</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2691.1281929872302</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>8437.421805484506</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-22.968859766442428</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-43.17959780802954</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>135</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.8086714083224071</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6951817014101037</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1161.518695874868</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3641.5236537262003</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-22.965373565218602</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-43.17306148644164</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.789884912973173</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15.285990748469855</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2566.9055971303455</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>8047.939959198643</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-22.974787363678026</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-43.19022301396131</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.2787739893127295</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.3555289871397995</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1064.8109106995246</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3338.3058693543576</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-22.97285293973478</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-43.191278057523306</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.097588573853809</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.9777214196726303</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1402.6196123396626</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4397.470315754904</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-22.966658665194306</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-43.17834991276679</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.855073618747759</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.6849124318623678</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1405.9475066296613</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4407.904564056559</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-22.96642012752066</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-43.18023173217087</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.6764649151634226</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.462702934276282</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1909.991553409809</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5988.275081357877</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-22.977776620030703</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-43.196336295797416</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioAuto.xlsx
+++ b/RelatorioAuto.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="151">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -20,7 +20,10 @@
     <t>CarID</t>
   </si>
   <si>
-    <t>RuteID</t>
+    <t>RoadID</t>
+  </si>
+  <si>
+    <t>ROuteID</t>
   </si>
   <si>
     <t>Speed</t>
@@ -44,463 +47,424 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>2023-10-22 20:22:25.674</t>
-  </si>
-  <si>
-    <t>Car 3</t>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>EdgeDistance</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:33.895</t>
+  </si>
+  <si>
+    <t>Car 1</t>
+  </si>
+  <si>
+    <t>72145316#4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2023-10-22 20:22:25.67</t>
-  </si>
-  <si>
-    <t>Car 2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.675</t>
-  </si>
-  <si>
-    <t>Car 1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.794</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.798</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.814</t>
-  </si>
-  <si>
-    <t>Car 4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.909</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.914</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:25.94</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.002</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.018</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.038</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.047</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.078</t>
-  </si>
-  <si>
-    <t>Car 5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.119</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.15</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.155</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.158</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.184</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.218</t>
-  </si>
-  <si>
-    <t>Car 6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.238</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.268</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.278</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.295</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.335</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.353</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.374</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.386</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.407</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.442</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.457</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.486</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.49</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.511</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.519</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.557</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.565</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.604</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.624</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.645</t>
-  </si>
-  <si>
-    <t>Car 8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.649</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.665</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.685</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.711</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.712</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.728</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.774</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.786</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.79</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.792</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.818</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.821</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.834</t>
-  </si>
-  <si>
-    <t>Car 9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.896</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.925</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.928</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.93</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.933</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.935</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.951</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:26.986</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.044</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.049</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.057</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.061</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.075</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.101</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.106</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.108</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.158</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.17</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.18</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.182</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.189</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.227</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.23</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.232</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.268</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.281</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.296</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.305</t>
-  </si>
-  <si>
-    <t>Car 10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.308</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.309</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.318</t>
-  </si>
-  <si>
-    <t>Car 11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.341</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.342</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.345</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.375</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.389</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.399</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.407</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.437</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.438</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.44</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.449</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.45</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.517</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.519</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.524</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.526</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.547</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.548</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.571</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.572</t>
-  </si>
-  <si>
-    <t>Car 12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.573</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.622</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.636</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.656</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.66</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.661</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.67</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.689</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.702</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.715</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.684</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.733</t>
-  </si>
-  <si>
-    <t>Car 13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.77</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.772</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.778</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.777</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.774</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.79</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.8</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.827</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.845</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.846</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.873</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.876</t>
-  </si>
-  <si>
-    <t>2023-10-22 20:22:27.896</t>
+    <t>2023-12-04 06:52:34.208</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:34.52</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:34.838</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:35.15</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:35.456</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:35.772</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:36.086</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:36.39</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:36.702</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:37.014</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:37.343</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:37.647</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:37.953</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:38.257</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:38.567</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:38.879</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:39.191</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:39.494</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:39.807</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:40.114</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:40.432</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:40.745</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:41.057</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:41.362</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:41.669</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:41.975</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:42.287</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:42.601</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:42.905</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:43.222</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:43.534</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:43.889</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:44.202</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:44.514</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:44.827</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:45.132</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:45.445</t>
+  </si>
+  <si>
+    <t>72145316#5</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:45.753</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:46.057</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:46.362</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:46.675</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:46.987</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:47.298</t>
+  </si>
+  <si>
+    <t>:148823597_3</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:47.61</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:47.916</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:48.219</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:48.531</t>
+  </si>
+  <si>
+    <t>30149869#3</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:48.845</t>
+  </si>
+  <si>
+    <t>30149869#4</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:49.158</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:49.464</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:49.782</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:50.085</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:50.388</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:50.704</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:51.013</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:51.315</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:51.628</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:51.94</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:52.254</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:52.567</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:52.885</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:53.189</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:53.493</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:53.805</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:54.126</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:54.429</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:54.743</t>
+  </si>
+  <si>
+    <t>:857592858_1</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:55.046</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:55.353</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:55.662</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:55.965</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:56.268</t>
+  </si>
+  <si>
+    <t>30149869#5</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:56.576</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:56.896</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:57.209</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:57.512</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:57.824</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:58.128</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:58.442</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:58.746</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:59.058</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:59.371</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:59.675</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:52:59.978</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:00.29</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:00.602</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:00.917</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:01.232</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:01.544</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:01.848</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:02.161</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:02.467</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:02.779</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:03.094</t>
+  </si>
+  <si>
+    <t>:331954212_1</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:03.412</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:03.715</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:04.027</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:04.337</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:04.647</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:04.957</t>
+  </si>
+  <si>
+    <t>30149869#6</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:05.261</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:05.573</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:05.888</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:06.203</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:06.511</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:06.824</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:07.131</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:07.446</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:07.758</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:08.066</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:08.381</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:08.694</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:08.999</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:09.308</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:09.611</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:09.922</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:10.235</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:10.539</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:10.853</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:11.173</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:11.485</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:11.797</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:12.112</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:12.418</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:12.728</t>
+  </si>
+  <si>
+    <t>2023-12-04 06:53:13.04</t>
   </si>
 </sst>
 </file>
@@ -545,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -582,42 +546,60 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7740137479782799</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12881271682174203</v>
+        <v>8.25</v>
       </c>
       <c r="F2" t="n">
-        <v>973.9983980148493</v>
+        <v>2.5503016764144184</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H2" t="n">
-        <v>3053.571769549353</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.968775989661108</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J2" t="n">
-        <v>-43.179457258200564</v>
+        <v>-22.966656202836514</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-43.1783452821261</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.4752803763730564</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.5503016764144184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -625,58 +607,76 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.7675558336337562</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1275172521823226</v>
+        <v>8.25</v>
       </c>
       <c r="F3" t="n">
-        <v>972.8448069480005</v>
+        <v>5.0253016764144185</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H3" t="n">
-        <v>3049.9547908245936</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.97008672211503</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J3" t="n">
-        <v>-43.19012225863852</v>
+        <v>-22.966645069828974</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-43.17832434570577</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.950560905592665</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.0253016764144185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.736326246101324</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12427845563706316</v>
+        <v>8.25</v>
       </c>
       <c r="F4" t="n">
-        <v>949.4625784526409</v>
+        <v>7.500301676414419</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H4" t="n">
-        <v>2976.643606280778</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="n">
-        <v>-22.964867510764847</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J4" t="n">
-        <v>-43.174578057528194</v>
+        <v>-22.966633936821435</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-43.178303409285434</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.425841587658759</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.500301676414419</v>
       </c>
     </row>
     <row r="5">
@@ -689,26 +689,35 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.2875558336337563</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.35903946641377316</v>
+        <v>8.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1066.4021635634865</v>
+        <v>9.975301676414418</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H5" t="n">
-        <v>3343.295089983713</v>
+        <v>2.0</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.970088509818375</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J5" t="n">
-        <v>-43.19012341798135</v>
+        <v>-22.966622803813895</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-43.1782824728651</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.901122422571273</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.975301676414418</v>
       </c>
     </row>
     <row r="6">
@@ -716,100 +725,127 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.29401374797828</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3616334806349594</v>
+        <v>8.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1067.5725713263068</v>
+        <v>12.450301676414416</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H6" t="n">
-        <v>3346.964791121181</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="n">
-        <v>-22.968777127536594</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J6" t="n">
-        <v>-43.179459167180624</v>
+        <v>-22.966611670806355</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-43.178261536444765</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.376403410330138</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.450301676414416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.2243268620464285</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3451855759698895</v>
+        <v>8.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1036.061074488653</v>
+        <v>14.925301676414414</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H7" t="n">
-        <v>3248.165182799039</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.964866591398472</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J7" t="n">
-        <v>-43.174576144795736</v>
+        <v>-22.96660424880133</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-43.17824757883121</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.026590820207339</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.925301676414414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7488913176149865</v>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12608612031778818</v>
+        <v>8.25</v>
       </c>
       <c r="F8" t="n">
-        <v>955.2079659029545</v>
+        <v>16.575301676414412</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H8" t="n">
-        <v>2994.6574175225837</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="n">
-        <v>-22.97490820896547</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J8" t="n">
-        <v>-43.1902915711257</v>
+        <v>-22.96659311579379</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-43.17822664241088</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16.501872062709975</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16.575301676414412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -817,127 +853,163 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.8075558336337563</v>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6945666422882342</v>
+        <v>8.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1161.3136232900838</v>
+        <v>19.05030167641441</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H9" t="n">
-        <v>3640.8806691428317</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="n">
-        <v>-22.970091100598093</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J9" t="n">
-        <v>-43.190125098126934</v>
+        <v>-22.96658198278625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-43.17820570599054</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.977153458058783</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19.05030167641441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.81401374797828</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6984622898036374</v>
+        <v>8.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1162.5008477488755</v>
+        <v>21.525301676414408</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H10" t="n">
-        <v>3644.603092693009</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="n">
-        <v>-22.968778773735334</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J10" t="n">
-        <v>-43.179461928959576</v>
+        <v>-22.96657084977871</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-43.17818476957021</v>
+      </c>
+      <c r="L10" t="n">
+        <v>21.452435006253697</v>
+      </c>
+      <c r="M10" t="n">
+        <v>21.525301676414408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.7443268620464285</v>
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6683225608077991</v>
+        <v>8.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1149.700627317807</v>
+        <v>24.000301676414406</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H11" t="n">
-        <v>3604.4692786923033</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.96486524657411</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J11" t="n">
-        <v>-43.17457334690224</v>
+        <v>-22.96655971677117</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-43.178163833149874</v>
+      </c>
+      <c r="L11" t="n">
+        <v>23.927716707294653</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24.000301676414406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.2498849129731777</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3500817196527419</v>
+        <v>8.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1059.578991993807</v>
+        <v>25.650301676414404</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H12" t="n">
-        <v>3470.0100465188025</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="n">
-        <v>-22.97490642341234</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J12" t="n">
-        <v>-43.19029055815729</v>
+        <v>-22.966552294766142</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-43.17814987553632</v>
+      </c>
+      <c r="L12" t="n">
+        <v>25.577904592693073</v>
+      </c>
+      <c r="M12" t="n">
+        <v>25.650301676414404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -945,159 +1017,204 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
-        <v>2.0675558336337563</v>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9013320901998904</v>
+        <v>8.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1209.2771418200489</v>
+        <v>28.125301676414402</v>
       </c>
       <c r="G13" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H13" t="n">
-        <v>3791.2654387223915</v>
+        <v>2.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-22.97009269714159</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J13" t="n">
-        <v>-43.19012613350076</v>
+        <v>-22.9665411617586</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-43.178128939115986</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.053186548674848</v>
+      </c>
+      <c r="M13" t="n">
+        <v>28.125301676414402</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.07401374797828</v>
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9058797100265313</v>
+        <v>8.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1210.4727746268265</v>
+        <v>29.7753016764144</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H14" t="n">
-        <v>3795.0142234789223</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.968779787455922</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J14" t="n">
-        <v>-43.17946362964863</v>
+        <v>-22.966533739753572</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-43.17811498150243</v>
+      </c>
+      <c r="L14" t="n">
+        <v>29.70337460390204</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29.7753016764144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.0043268620464287</v>
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>0.868923863918104</v>
+        <v>8.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1197.5818203216777</v>
+        <v>32.2503016764144</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H15" t="n">
-        <v>3754.595947609844</v>
+        <v>2.0</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.964864411716047</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J15" t="n">
-        <v>-43.174571609988476</v>
+        <v>-22.966522606746032</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-43.1780940450821</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32.17865681442931</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32.2503016764144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.759820376604124</v>
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1259780505442377</v>
+        <v>8.25</v>
       </c>
       <c r="F16" t="n">
-        <v>971.4632806033817</v>
+        <v>34.72530167641441</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H16" t="n">
-        <v>3045.623141915256</v>
+        <v>2.0</v>
       </c>
       <c r="I16" t="n">
-        <v>-22.96437466563381</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J16" t="n">
-        <v>-43.181307256057664</v>
+        <v>-22.966511473738493</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-43.17807310866176</v>
+      </c>
+      <c r="L16" t="n">
+        <v>34.65393917780233</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34.72530167641441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.7698849129731777</v>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6780859643154016</v>
+        <v>8.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1154.3923549687408</v>
+        <v>37.20030167641442</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H17" t="n">
-        <v>3619.179723400226</v>
+        <v>2.0</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.97490380876721</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J17" t="n">
-        <v>-43.19028907483377</v>
+        <v>-22.966500340730953</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-43.17805217224143</v>
+      </c>
+      <c r="L17" t="n">
+        <v>37.12922169402103</v>
+      </c>
+      <c r="M17" t="n">
+        <v>37.20030167641442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1105,191 +1222,245 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
-        <v>2.587555833633756</v>
+      <c r="D18" t="s">
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3928667054735158</v>
+        <v>8.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1306.2197562133122</v>
+        <v>38.850301676414425</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H18" t="n">
-        <v>4095.218937881509</v>
+        <v>2.0</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.97009649253587</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J18" t="n">
-        <v>-43.19012859485049</v>
+        <v>-22.966492918725926</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-43.178038214627875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>38.779410122871084</v>
+      </c>
+      <c r="M18" t="n">
+        <v>38.850301676414425</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.5940137479782797</v>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3987205815204191</v>
+        <v>8.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1307.4322057160614</v>
+        <v>41.32530167641443</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H19" t="n">
-        <v>4099.020445050749</v>
+        <v>2.0</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.968782196139536</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J19" t="n">
-        <v>-43.17946767062592</v>
+        <v>-22.966481785718386</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-43.17801727820754</v>
+      </c>
+      <c r="L19" t="n">
+        <v>41.25469289383244</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41.32530167641443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.5243268620464283</v>
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>3.4731763086489043</v>
+        <v>8.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1294.359783662751</v>
+        <v>43.80030167641444</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H20" t="n">
-        <v>4058.0332454449217</v>
+        <v>2.0</v>
       </c>
       <c r="I20" t="n">
-        <v>-22.964887946034075</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J20" t="n">
-        <v>-43.17455300223488</v>
+        <v>-22.966470652710846</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-43.17799634178721</v>
+      </c>
+      <c r="L20" t="n">
+        <v>43.7299758176393</v>
+      </c>
+      <c r="M20" t="n">
+        <v>43.80030167641444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.019820376604124</v>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2279714022285164</v>
+        <v>8.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1018.0626242852842</v>
+        <v>46.27530167641445</v>
       </c>
       <c r="G21" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H21" t="n">
-        <v>3191.7310553592206</v>
+        <v>2.0</v>
       </c>
       <c r="I21" t="n">
-        <v>-22.964375384442054</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J21" t="n">
-        <v>-43.181306637225106</v>
+        <v>-22.966459519703307</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-43.17797540536687</v>
+      </c>
+      <c r="L21" t="n">
+        <v>46.205258894291596</v>
+      </c>
+      <c r="M21" t="n">
+        <v>46.27530167641445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7501656174409078</v>
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>0.12594617258296786</v>
+        <v>8.25</v>
       </c>
       <c r="F22" t="n">
-        <v>957.8603862297982</v>
+        <v>48.75030167641446</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H22" t="n">
-        <v>3002.973613754662</v>
+        <v>2.0</v>
       </c>
       <c r="I22" t="n">
-        <v>-22.964994416733536</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J22" t="n">
-        <v>-43.1804329581438</v>
+        <v>-22.966448386695767</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-43.17795446894654</v>
+      </c>
+      <c r="L22" t="n">
+        <v>48.680542123789266</v>
+      </c>
+      <c r="M22" t="n">
+        <v>48.75030167641446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2.2898849129731778</v>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>1.1100988559766023</v>
+        <v>8.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1250.5598210547853</v>
+        <v>51.22530167641447</v>
       </c>
       <c r="G23" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H23" t="n">
-        <v>3920.703037163071</v>
+        <v>2.0</v>
       </c>
       <c r="I23" t="n">
-        <v>-22.97490036503007</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J23" t="n">
-        <v>-43.190287121155166</v>
+        <v>-22.966437253688227</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-43.177933532526204</v>
+      </c>
+      <c r="L23" t="n">
+        <v>51.15582550613224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>51.22530167641447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1297,191 +1468,245 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="n">
-        <v>3.1075558336337554</v>
+      <c r="D24" t="s">
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1.988406276835452</v>
+        <v>8.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1404.5164737176872</v>
+        <v>52.87530167641447</v>
       </c>
       <c r="G24" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H24" t="n">
-        <v>4403.417717040627</v>
+        <v>2.0</v>
       </c>
       <c r="I24" t="n">
-        <v>-22.97010109100652</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J24" t="n">
-        <v>-43.19013157700297</v>
+        <v>-22.9664298316832</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-43.17791957491265</v>
+      </c>
+      <c r="L24" t="n">
+        <v>52.806014512398264</v>
+      </c>
+      <c r="M24" t="n">
+        <v>52.87530167641447</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.044326862046428</v>
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>3.737959728850338</v>
+        <v>8.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1392.4918501149357</v>
+        <v>55.35030167641448</v>
       </c>
       <c r="G25" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H25" t="n">
-        <v>4365.715823280001</v>
+        <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>-22.964885513221063</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J25" t="n">
-        <v>-43.17454795122795</v>
+        <v>-22.96641869867566</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-43.177898638492316</v>
+      </c>
+      <c r="L25" t="n">
+        <v>55.281298149483256</v>
+      </c>
+      <c r="M25" t="n">
+        <v>55.35030167641448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.1140137479782792</v>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>1.9955694895152727</v>
+        <v>8.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1405.7457399164075</v>
+        <v>57.82530167641449</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H26" t="n">
-        <v>4407.271946622575</v>
+        <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>-22.968785113146403</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J26" t="n">
-        <v>-43.17947256440209</v>
+        <v>-22.96640756566812</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-43.17787770207198</v>
+      </c>
+      <c r="L26" t="n">
+        <v>57.75658193941337</v>
+      </c>
+      <c r="M26" t="n">
+        <v>57.82530167641449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.539820376604124</v>
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5099667585500057</v>
+        <v>8.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1112.2768889824224</v>
+        <v>60.3003016764145</v>
       </c>
       <c r="G27" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H27" t="n">
-        <v>3487.1308422471498</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>-22.96437737183226</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J27" t="n">
-        <v>-43.18130492625174</v>
+        <v>-22.96639643266058</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-43.17785676565165</v>
+      </c>
+      <c r="L27" t="n">
+        <v>60.23186588218855</v>
+      </c>
+      <c r="M27" t="n">
+        <v>60.3003016764145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.270165617440908</v>
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3539944730574692</v>
+        <v>8.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1063.2514655368811</v>
+        <v>62.77530167641451</v>
       </c>
       <c r="G28" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H28" t="n">
-        <v>3333.416378614356</v>
+        <v>2.0</v>
       </c>
       <c r="I28" t="n">
-        <v>-22.964995261160478</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J28" t="n">
-        <v>-43.18043498800271</v>
+        <v>-22.96638529965304</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-43.17783582923131</v>
+      </c>
+      <c r="L28" t="n">
+        <v>62.70714997780872</v>
+      </c>
+      <c r="M28" t="n">
+        <v>62.77530167641451</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.8098849129731773</v>
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6461203959769832</v>
+        <v>8.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1348.0813902519412</v>
+        <v>64.4253016764145</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H29" t="n">
-        <v>4226.471630925916</v>
+        <v>2.0</v>
       </c>
       <c r="I29" t="n">
-        <v>-22.97489609220093</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J29" t="n">
-        <v>-43.19028469712146</v>
+        <v>-22.966377877648014</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-43.17782187161776</v>
+      </c>
+      <c r="L29" t="n">
+        <v>64.3573394595927</v>
+      </c>
+      <c r="M29" t="n">
+        <v>64.4253016764145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1489,191 +1714,245 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="n">
-        <v>3.367555833633755</v>
+      <c r="D30" t="s">
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>2.32517717084929</v>
+        <v>8.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1454.1726211365408</v>
+        <v>66.90030167641451</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H30" t="n">
-        <v>4559.109086620187</v>
+        <v>2.0</v>
       </c>
       <c r="I30" t="n">
-        <v>-22.970103690851758</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J30" t="n">
-        <v>-43.19013326435496</v>
+        <v>-22.966366744640474</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-43.177800935197425</v>
+      </c>
+      <c r="L30" t="n">
+        <v>66.83262380995437</v>
+      </c>
+      <c r="M30" t="n">
+        <v>66.90030167641451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.634013747978279</v>
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>2.696426429877366</v>
+        <v>8.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1505.4133772278649</v>
+        <v>69.37530167641452</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H31" t="n">
-        <v>4719.7687281944045</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
-        <v>-22.968788538476524</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J31" t="n">
-        <v>-43.17947831097715</v>
+        <v>-22.96635561163293</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-43.17777999877709</v>
+      </c>
+      <c r="L31" t="n">
+        <v>69.30790831335842</v>
+      </c>
+      <c r="M31" t="n">
+        <v>69.37530167641452</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.5643268620464275</v>
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>4.134827485042987</v>
+        <v>8.25</v>
       </c>
       <c r="F32" t="n">
-        <v>1491.9780196782317</v>
+        <v>71.85030167641453</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H32" t="n">
-        <v>4677.643681115082</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>-22.96488264632401</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J32" t="n">
-        <v>-43.17454199897565</v>
+        <v>-22.96634447862539</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-43.177759062356756</v>
+      </c>
+      <c r="L32" t="n">
+        <v>71.78319296940965</v>
+      </c>
+      <c r="M32" t="n">
+        <v>71.85030167641453</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.059820376604124</v>
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8959736503845648</v>
+        <v>8.25</v>
       </c>
       <c r="F33" t="n">
-        <v>1207.8452567906718</v>
+        <v>73.50030167641454</v>
       </c>
       <c r="G33" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H33" t="n">
-        <v>3786.77590913508</v>
+        <v>2.0</v>
       </c>
       <c r="I33" t="n">
-        <v>-22.964380092254082</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J33" t="n">
-        <v>-43.18130258420071</v>
+        <v>-22.966337056620365</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-43.1777451047432</v>
+      </c>
+      <c r="L33" t="n">
+        <v>73.4333828248142</v>
+      </c>
+      <c r="M33" t="n">
+        <v>73.50030167641454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.790165617440908</v>
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6860496937050575</v>
+        <v>8.25</v>
       </c>
       <c r="F34" t="n">
-        <v>1158.1176403676136</v>
+        <v>75.97530167641455</v>
       </c>
       <c r="G34" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H34" t="n">
-        <v>3630.8599840484762</v>
+        <v>2.0</v>
       </c>
       <c r="I34" t="n">
-        <v>-22.964996490708675</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J34" t="n">
-        <v>-43.18043794362769</v>
+        <v>-22.966325923612825</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-43.17772416832287</v>
+      </c>
+      <c r="L34" t="n">
+        <v>75.90866773560653</v>
+      </c>
+      <c r="M34" t="n">
+        <v>75.97530167641455</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.329884912973177</v>
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>2.2861505864310185</v>
+        <v>8.25</v>
       </c>
       <c r="F35" t="n">
-        <v>1446.9570625602084</v>
+        <v>78.45030167641455</v>
       </c>
       <c r="G35" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H35" t="n">
-        <v>4536.485504688762</v>
+        <v>2.0</v>
       </c>
       <c r="I35" t="n">
-        <v>-22.974890990279786</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J35" t="n">
-        <v>-43.19028180273266</v>
+        <v>-22.966314790605285</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-43.177703231902534</v>
+      </c>
+      <c r="L35" t="n">
+        <v>78.38395279924342</v>
+      </c>
+      <c r="M35" t="n">
+        <v>78.45030167641455</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1681,474 +1960,609 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="n">
-        <v>3.887555833633755</v>
+      <c r="D36" t="s">
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>3.0766767875336356</v>
+        <v>8.25</v>
       </c>
       <c r="F36" t="n">
-        <v>1554.5004933075825</v>
+        <v>80.92530167641456</v>
       </c>
       <c r="G36" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H36" t="n">
-        <v>4873.675785779307</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n">
-        <v>-22.970109448010543</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J36" t="n">
-        <v>-43.19013711004233</v>
+        <v>-22.966303657597745</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-43.1776822954822</v>
+      </c>
+      <c r="L36" t="n">
+        <v>80.8592380157248</v>
+      </c>
+      <c r="M36" t="n">
+        <v>80.92530167641456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.8940137479782786</v>
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>3.0858579105327615</v>
+        <v>8.25</v>
       </c>
       <c r="F37" t="n">
-        <v>1555.7549845502604</v>
+        <v>82.57530167641457</v>
       </c>
       <c r="G37" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H37" t="n">
-        <v>4877.609098980319</v>
+        <v>2.0</v>
       </c>
       <c r="I37" t="n">
-        <v>-22.968790441762803</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J37" t="n">
-        <v>-43.17948150406427</v>
+        <v>-22.96629623559272</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-43.177668337868646</v>
+      </c>
+      <c r="L37" t="n">
+        <v>82.50942824474932</v>
+      </c>
+      <c r="M37" t="n">
+        <v>82.57530167641457</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.084326862046427</v>
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>4.676112241350941</v>
+        <v>8.25</v>
       </c>
       <c r="F38" t="n">
-        <v>1592.8182923526385</v>
+        <v>85.05030167641458</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H38" t="n">
-        <v>4993.816818950162</v>
+        <v>2.0</v>
       </c>
       <c r="I38" t="n">
-        <v>-22.964879345342922</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J38" t="n">
-        <v>-43.17453514547797</v>
+        <v>-22.96628510258518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-43.17764740144831</v>
+      </c>
+      <c r="L38" t="n">
+        <v>84.9847137159714</v>
+      </c>
+      <c r="M38" t="n">
+        <v>85.05030167641458</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.5798203766041237</v>
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>1.3859920750000747</v>
+        <v>8.25</v>
       </c>
       <c r="F39" t="n">
-        <v>1304.767727710032</v>
+        <v>87.52530167641457</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H39" t="n">
-        <v>4090.666256023007</v>
+        <v>2.0</v>
       </c>
       <c r="I39" t="n">
-        <v>-22.964383545707516</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J39" t="n">
-        <v>-43.181299611072006</v>
+        <v>-22.96627393974845</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-43.177626585012405</v>
+      </c>
+      <c r="L39" t="n">
+        <v>87.45103710350453</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.6753016764145827</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.3101656174409078</v>
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>1.122111832006698</v>
+        <v>8.25</v>
       </c>
       <c r="F40" t="n">
-        <v>1254.3379183094567</v>
+        <v>90.00030167641458</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H40" t="n">
-        <v>3932.548869482596</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.964998105378122</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J40" t="n">
-        <v>-43.18044182501873</v>
+        <v>-22.966262761974022</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-43.17760568473518</v>
+      </c>
+      <c r="L40" t="n">
+        <v>89.92561570024674</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.150301676414583</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.8498849129731765</v>
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>3.0301894302136287</v>
+        <v>8.25</v>
       </c>
       <c r="F41" t="n">
-        <v>1547.1868379795862</v>
+        <v>92.47530167641457</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H41" t="n">
-        <v>4850.744658451607</v>
+        <v>2.0</v>
       </c>
       <c r="I41" t="n">
-        <v>-22.974885059266636</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J41" t="n">
-        <v>-43.190278437988766</v>
+        <v>-22.966251584199593</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-43.17758478445795</v>
+      </c>
+      <c r="L41" t="n">
+        <v>92.40019444996206</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.625301676414583</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.407555833633754</v>
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>3.932197340705733</v>
+        <v>8.25</v>
       </c>
       <c r="F42" t="n">
-        <v>1656.1824685897348</v>
+        <v>94.12530167641458</v>
       </c>
       <c r="G42" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H42" t="n">
-        <v>5192.487764938425</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.970116001890037</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J42" t="n">
-        <v>-43.19014148792603</v>
+        <v>-22.966244132349974</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-43.177570850939794</v>
+      </c>
+      <c r="L42" t="n">
+        <v>94.04991370163364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8.275301676414584</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.414013747978278</v>
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>3.9427268877014368</v>
+        <v>8.25</v>
       </c>
       <c r="F43" t="n">
-        <v>1657.4537765283844</v>
+        <v>96.60030167641457</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H43" t="n">
-        <v>5196.473800552146</v>
+        <v>2.0</v>
       </c>
       <c r="I43" t="n">
-        <v>-22.968794629577797</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J43" t="n">
-        <v>-43.17948852983766</v>
+        <v>-22.966232954575545</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-43.177549950662566</v>
+      </c>
+      <c r="L43" t="n">
+        <v>96.52449270630399</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10.750301676414582</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.604326862046427</v>
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>5.3642141760032365</v>
+        <v>8.25</v>
       </c>
       <c r="F44" t="n">
-        <v>1695.0126681381566</v>
+        <v>99.07530167641457</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H44" t="n">
-        <v>5314.235236785242</v>
+        <v>2.0</v>
       </c>
       <c r="I44" t="n">
-        <v>-22.964875610277797</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J44" t="n">
-        <v>-43.17452739073491</v>
+        <v>-22.96622177680112</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-43.17752905038534</v>
+      </c>
+      <c r="L44" t="n">
+        <v>98.99907186374885</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13.22530167641458</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7364649151634252</v>
+      <c r="D45" t="s">
+        <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>0.12297116753039868</v>
+        <v>8.25</v>
       </c>
       <c r="F45" t="n">
-        <v>957.0718049458194</v>
+        <v>101.55030167641458</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H45" t="n">
-        <v>3000.5009361405264</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>-22.977780589117568</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J45" t="n">
-        <v>-43.196274517853055</v>
+        <v>-22.966208711570168</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-43.177509504513274</v>
+      </c>
+      <c r="L45" t="n">
+        <v>101.47194503863942</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.9803016764145784</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.0998203766041232</v>
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>1.980022028727007</v>
+        <v>8.25</v>
       </c>
       <c r="F46" t="n">
-        <v>1403.0443017405034</v>
+        <v>104.02530167641457</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H46" t="n">
-        <v>4398.801882910936</v>
+        <v>2.0</v>
       </c>
       <c r="I46" t="n">
-        <v>-22.964387732192566</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J46" t="n">
-        <v>-43.18129600686565</v>
+        <v>-22.966191131242955</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-43.17749518438626</v>
+      </c>
+      <c r="L46" t="n">
+        <v>103.91548565697086</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4.455301676414579</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.5701656174409075</v>
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>1.3791454943177301</v>
+        <v>8.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1302.955845947045</v>
+        <v>105.67530167641458</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H47" t="n">
-        <v>4084.9852921996558</v>
+        <v>2.0</v>
       </c>
       <c r="I47" t="n">
-        <v>-22.964999057133316</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J47" t="n">
-        <v>-43.18044411287653</v>
+        <v>-22.966176756163804</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-43.177492457555005</v>
+      </c>
+      <c r="L47" t="n">
+        <v>105.53811822689707</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6.105301676414579</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.369884912973176</v>
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>3.8782369299097055</v>
+        <v>8.25</v>
       </c>
       <c r="F48" t="n">
-        <v>1648.7707165100758</v>
+        <v>108.15030167641457</v>
       </c>
       <c r="G48" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H48" t="n">
-        <v>5169.249092214453</v>
+        <v>2.0</v>
       </c>
       <c r="I48" t="n">
-        <v>-22.974878299161485</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J48" t="n">
-        <v>-43.19027460288977</v>
+        <v>-22.96615534280033</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-43.17749729522373</v>
+      </c>
+      <c r="L48" t="n">
+        <v>107.97014256011941</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.58030167641458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.927555833633754</v>
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>4.891732596854972</v>
+        <v>8.25</v>
       </c>
       <c r="F49" t="n">
-        <v>1759.2185469829985</v>
+        <v>110.62530167641457</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>666.1848263888888</v>
       </c>
       <c r="H49" t="n">
-        <v>5515.545024097543</v>
+        <v>2.0</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.970123352490248</v>
+        <v>2088.575347222222</v>
       </c>
       <c r="J49" t="n">
-        <v>-43.19014639800606</v>
+        <v>-22.966135229270318</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-43.17750752316043</v>
+      </c>
+      <c r="L49" t="n">
+        <v>110.43966702348531</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.7553016764145786</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
         <v>68</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.934013747978278</v>
+      <c r="D50" t="s">
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>4.903603882369964</v>
+        <v>7.85</v>
       </c>
       <c r="F50" t="n">
-        <v>1760.5066716176193</v>
+        <v>112.98030167641457</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H50" t="n">
-        <v>5519.583782123973</v>
+        <v>2.0</v>
       </c>
       <c r="I50" t="n">
-        <v>-22.968799325716045</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J50" t="n">
-        <v>-43.17949640840995</v>
+        <v>-22.966117261521966</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-43.177517738798734</v>
+      </c>
+      <c r="L50" t="n">
+        <v>112.69478947712719</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.15030167641457845</v>
       </c>
     </row>
     <row r="51">
@@ -2156,31 +2570,40 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.864326862046426</v>
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>5.762283518090918</v>
+        <v>7.85</v>
       </c>
       <c r="F51" t="n">
-        <v>1746.6176446975826</v>
+        <v>115.33530167641456</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H51" t="n">
-        <v>5476.03642570278</v>
+        <v>2.0</v>
       </c>
       <c r="I51" t="n">
-        <v>-22.964873579963722</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J51" t="n">
-        <v>-43.17452317539637</v>
+        <v>-22.966098501042627</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-43.177528409856095</v>
+      </c>
+      <c r="L51" t="n">
+        <v>115.04963085343229</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.505301676414579</v>
       </c>
     </row>
     <row r="52">
@@ -2188,31 +2611,40 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.619820376604123</v>
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>2.6780635088834095</v>
+        <v>7.85</v>
       </c>
       <c r="F52" t="n">
-        <v>1502.674978882086</v>
+        <v>116.90530167641457</v>
       </c>
       <c r="G52" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H52" t="n">
-        <v>4711.182789798865</v>
+        <v>2.0</v>
       </c>
       <c r="I52" t="n">
-        <v>-22.96439265170923</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J52" t="n">
-        <v>-43.18129177158162</v>
+        <v>-22.966085994056396</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-43.177535523894335</v>
+      </c>
+      <c r="L52" t="n">
+        <v>116.6195251438422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.075301676414579</v>
       </c>
     </row>
     <row r="53">
@@ -2220,31 +2652,40 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.090165617440907</v>
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>1.971218002980216</v>
+        <v>7.85</v>
       </c>
       <c r="F53" t="n">
-        <v>1401.2072785555551</v>
+        <v>119.26030167641457</v>
       </c>
       <c r="G53" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H53" t="n">
-        <v>4393.042097633776</v>
+        <v>2.0</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.965001249484644</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J53" t="n">
-        <v>-43.18044938291667</v>
+        <v>-22.966067233577057</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-43.1775461949517</v>
+      </c>
+      <c r="L53" t="n">
+        <v>118.97436663770443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6.4303016764145795</v>
       </c>
     </row>
     <row r="54">
@@ -2252,31 +2693,40 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.629884912973176</v>
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>4.341263926887668</v>
+        <v>7.85</v>
       </c>
       <c r="F54" t="n">
-        <v>1700.0704444419866</v>
+        <v>121.61530167641456</v>
       </c>
       <c r="G54" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H54" t="n">
-        <v>5330.0932890958775</v>
+        <v>2.0</v>
       </c>
       <c r="I54" t="n">
-        <v>-22.974874608199407</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J54" t="n">
-        <v>-43.190272508957115</v>
+        <v>-22.966048473097715</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-43.17755686600906</v>
+      </c>
+      <c r="L54" t="n">
+        <v>121.32920820191084</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.78530167641458</v>
       </c>
     </row>
     <row r="55">
@@ -2284,31 +2734,40 @@
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.2564649151634253</v>
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3482800843936638</v>
+        <v>7.85</v>
       </c>
       <c r="F55" t="n">
-        <v>1060.7702872019488</v>
+        <v>123.97030167641456</v>
       </c>
       <c r="G55" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H55" t="n">
-        <v>3325.636881701698</v>
+        <v>2.0</v>
       </c>
       <c r="I55" t="n">
-        <v>-22.977780448059445</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J55" t="n">
-        <v>-43.19627671339104</v>
+        <v>-22.966029712618372</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-43.17756753706642</v>
+      </c>
+      <c r="L55" t="n">
+        <v>123.68404983644892</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11.14030167641458</v>
       </c>
     </row>
     <row r="56">
@@ -2316,31 +2775,40 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5.454013747978277</v>
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>5.968488885464294</v>
+        <v>7.85</v>
       </c>
       <c r="F56" t="n">
-        <v>1864.9136698179657</v>
+        <v>126.32530167641457</v>
       </c>
       <c r="G56" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H56" t="n">
-        <v>5846.9390436958</v>
+        <v>2.0</v>
       </c>
       <c r="I56" t="n">
-        <v>-22.968804530177543</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J56" t="n">
-        <v>-43.17950513978113</v>
+        <v>-22.966010952139033</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-43.177578208123784</v>
+      </c>
+      <c r="L56" t="n">
+        <v>126.03889154096866</v>
+      </c>
+      <c r="M56" t="n">
+        <v>13.49530167641458</v>
       </c>
     </row>
     <row r="57">
@@ -2351,28 +2819,37 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5.4475558336337535</v>
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>5.955279111145092</v>
+        <v>7.85</v>
       </c>
       <c r="F57" t="n">
-        <v>1863.6087284873731</v>
+        <v>127.89530167641456</v>
       </c>
       <c r="G57" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H57" t="n">
-        <v>5842.847563256663</v>
+        <v>2.0</v>
       </c>
       <c r="I57" t="n">
-        <v>-22.97013149981117</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J57" t="n">
-        <v>-43.19015184028241</v>
+        <v>-22.965998445152806</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-43.17758532216203</v>
+      </c>
+      <c r="L57" t="n">
+        <v>127.60878605017575</v>
+      </c>
+      <c r="M57" t="n">
+        <v>15.065301676414581</v>
       </c>
     </row>
     <row r="58">
@@ -2380,543 +2857,696 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.7286774313957978</v>
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>0.12347311478867715</v>
+        <v>7.85</v>
       </c>
       <c r="F58" t="n">
-        <v>943.2666101844853</v>
+        <v>130.25030167641455</v>
       </c>
       <c r="G58" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H58" t="n">
-        <v>2957.217163044427</v>
+        <v>2.0</v>
       </c>
       <c r="I58" t="n">
-        <v>-22.974451400873882</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J58" t="n">
-        <v>-43.188584797616244</v>
+        <v>-22.965979684673464</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-43.17759599321939</v>
+      </c>
+      <c r="L58" t="n">
+        <v>129.9636278722647</v>
+      </c>
+      <c r="M58" t="n">
+        <v>17.42030167641458</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.139820376604122</v>
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>3.4801165100423197</v>
+        <v>7.85</v>
       </c>
       <c r="F59" t="n">
-        <v>1603.6597591347797</v>
+        <v>132.60530167641457</v>
       </c>
       <c r="G59" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H59" t="n">
-        <v>5027.808976686793</v>
+        <v>2.0</v>
       </c>
       <c r="I59" t="n">
-        <v>-22.964398304257507</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J59" t="n">
-        <v>-43.181286905219935</v>
+        <v>-22.96596092419412</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-43.17760666427675</v>
+      </c>
+      <c r="L59" t="n">
+        <v>132.31846976468518</v>
+      </c>
+      <c r="M59" t="n">
+        <v>19.775301676414582</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5.714013747978277</v>
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>6.539934387409685</v>
+        <v>7.85</v>
       </c>
       <c r="F60" t="n">
-        <v>1917.6249575848058</v>
+        <v>134.96030167641456</v>
       </c>
       <c r="G60" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H60" t="n">
-        <v>6012.208654481714</v>
+        <v>2.0</v>
       </c>
       <c r="I60" t="n">
-        <v>-22.968807323029512</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J60" t="n">
-        <v>-43.179509825266294</v>
+        <v>-22.965942163714782</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-43.17761733533412</v>
+      </c>
+      <c r="L60" t="n">
+        <v>134.67331172742465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>22.130301676414582</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5.149884912973175</v>
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>5.345324417373209</v>
+        <v>7.85</v>
       </c>
       <c r="F61" t="n">
-        <v>1803.6854776391426</v>
+        <v>137.31530167641458</v>
       </c>
       <c r="G61" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H61" t="n">
-        <v>5654.965642858722</v>
+        <v>2.0</v>
       </c>
       <c r="I61" t="n">
-        <v>-22.97486660445625</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J61" t="n">
-        <v>-43.19026796832547</v>
+        <v>-22.96592340323544</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-43.17762800639148</v>
+      </c>
+      <c r="L61" t="n">
+        <v>137.02815376050796</v>
+      </c>
+      <c r="M61" t="n">
+        <v>24.485301676414583</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.7764649151634253</v>
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6775963569106667</v>
+        <v>7.85</v>
       </c>
       <c r="F62" t="n">
-        <v>1155.600784795031</v>
+        <v>139.67030167641457</v>
       </c>
       <c r="G62" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H62" t="n">
-        <v>3622.968634602425</v>
+        <v>2.0</v>
       </c>
       <c r="I62" t="n">
-        <v>-22.97778024188591</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J62" t="n">
-        <v>-43.19627992243574</v>
+        <v>-22.965910896249213</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-43.17763512042972</v>
+      </c>
+      <c r="L62" t="n">
+        <v>138.5980484881865</v>
+      </c>
+      <c r="M62" t="n">
+        <v>26.840301676414583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.6101656174409067</v>
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>2.667297420176745</v>
+        <v>7.85</v>
       </c>
       <c r="F63" t="n">
-        <v>1500.8128142751764</v>
+        <v>141.24030167641456</v>
       </c>
       <c r="G63" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H63" t="n">
-        <v>4705.344183067895</v>
+        <v>2.0</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.965003826957222</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J63" t="n">
-        <v>-43.18045557872288</v>
+        <v>-22.96589213576987</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-43.17764579148708</v>
+      </c>
+      <c r="L63" t="n">
+        <v>140.95289063848873</v>
+      </c>
+      <c r="M63" t="n">
+        <v>28.410301676414583</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="n">
-        <v>5.707555833633753</v>
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>6.526055921080756</v>
+        <v>7.85</v>
       </c>
       <c r="F64" t="n">
-        <v>1916.3116079062272</v>
+        <v>143.59530167641458</v>
       </c>
       <c r="G64" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H64" t="n">
-        <v>6008.090812836221</v>
+        <v>2.0</v>
       </c>
       <c r="I64" t="n">
-        <v>-22.9701358722419</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J64" t="n">
-        <v>-43.19015476099422</v>
+        <v>-22.965873375290528</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-43.17765646254445</v>
+      </c>
+      <c r="L64" t="n">
+        <v>143.30773285945972</v>
+      </c>
+      <c r="M64" t="n">
+        <v>30.765301676414584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9586292930792678</v>
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>0.21933673664562064</v>
+        <v>7.85</v>
       </c>
       <c r="F65" t="n">
-        <v>983.1168149156227</v>
+        <v>145.95030167641457</v>
       </c>
       <c r="G65" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H65" t="n">
-        <v>3082.1639130839094</v>
+        <v>2.0</v>
       </c>
       <c r="I65" t="n">
-        <v>-22.974451869283307</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J65" t="n">
-        <v>-43.18858401148661</v>
+        <v>-22.96585461481119</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-43.17766713360181</v>
+      </c>
+      <c r="L65" t="n">
+        <v>145.6625751500745</v>
+      </c>
+      <c r="M65" t="n">
+        <v>33.12030167641458</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5.644326862046426</v>
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>7.163472696829421</v>
+        <v>7.85</v>
       </c>
       <c r="F66" t="n">
-        <v>1903.4637290425262</v>
+        <v>148.30530167641456</v>
       </c>
       <c r="G66" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H66" t="n">
-        <v>5967.807912455401</v>
+        <v>2.0</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.964866837895443</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J66" t="n">
-        <v>-43.174509177512675</v>
+        <v>-22.965835854331846</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-43.17767780465917</v>
+      </c>
+      <c r="L66" t="n">
+        <v>148.0174175113704</v>
+      </c>
+      <c r="M66" t="n">
+        <v>35.47530167641457</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="n">
-        <v>5.967555833633753</v>
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>7.122834853254061</v>
+        <v>7.85</v>
       </c>
       <c r="F67" t="n">
-        <v>1969.3530131028592</v>
+        <v>150.66030167641455</v>
       </c>
       <c r="G67" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H67" t="n">
-        <v>6174.395382415781</v>
+        <v>2.0</v>
       </c>
       <c r="I67" t="n">
-        <v>-22.97014044385281</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J67" t="n">
-        <v>-43.1901578147551</v>
+        <v>-22.965817093852504</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-43.17768847571653</v>
+      </c>
+      <c r="L67" t="n">
+        <v>150.37225994299746</v>
+      </c>
+      <c r="M67" t="n">
+        <v>37.83030167641456</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5.409884912973175</v>
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>5.886357911534211</v>
+        <v>7.85</v>
       </c>
       <c r="F68" t="n">
-        <v>1856.0007829043873</v>
+        <v>152.23030167641454</v>
       </c>
       <c r="G68" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H68" t="n">
-        <v>5818.993799740145</v>
+        <v>2.0</v>
       </c>
       <c r="I68" t="n">
-        <v>-22.97486229167517</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J68" t="n">
-        <v>-43.19026552162649</v>
+        <v>-22.965804586866277</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-43.17769558975478</v>
+      </c>
+      <c r="L68" t="n">
+        <v>151.9421549367092</v>
+      </c>
+      <c r="M68" t="n">
+        <v>39.40030167641455</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.0364649151634255</v>
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8812572514059784</v>
+        <v>7.85</v>
       </c>
       <c r="F69" t="n">
-        <v>1203.5238222582386</v>
+        <v>154.58530167641453</v>
       </c>
       <c r="G69" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H69" t="n">
-        <v>3773.2264910527897</v>
+        <v>2.0</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.977780114380863</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J69" t="n">
-        <v>-43.196281907023106</v>
+        <v>-22.965785823447987</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-43.177706261191695</v>
+      </c>
+      <c r="L69" t="n">
+        <v>154.29730501399743</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.6853016764145394</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.218629293079268</v>
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>0.34120054632510366</v>
+        <v>7.85</v>
       </c>
       <c r="F70" t="n">
-        <v>1053.9231904467022</v>
+        <v>156.94030167641452</v>
       </c>
       <c r="G70" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H70" t="n">
-        <v>3304.1684645699575</v>
+        <v>2.0</v>
       </c>
       <c r="I70" t="n">
-        <v>-22.974452464735016</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J70" t="n">
-        <v>-43.18858301214244</v>
+        <v>-22.965767052869115</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-43.177716933553405</v>
+      </c>
+      <c r="L70" t="n">
+        <v>156.65320446324034</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.04030167641454</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.659820376604122</v>
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>4.386181028525828</v>
+        <v>7.85</v>
       </c>
       <c r="F71" t="n">
-        <v>1705.9986424985848</v>
+        <v>159.2953016764145</v>
       </c>
       <c r="G71" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H71" t="n">
-        <v>5348.680443574723</v>
+        <v>2.0</v>
       </c>
       <c r="I71" t="n">
-        <v>-22.9644046898374</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J71" t="n">
-        <v>-43.181281407780574</v>
+        <v>-22.965748282290242</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-43.17772760591511</v>
+      </c>
+      <c r="L71" t="n">
+        <v>159.00910398250033</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5.39530167641454</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4.130165617440906</v>
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>3.4673837404673993</v>
+        <v>7.85</v>
       </c>
       <c r="F72" t="n">
-        <v>1601.7724531059084</v>
+        <v>160.8653016764145</v>
       </c>
       <c r="G72" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H72" t="n">
-        <v>5021.891548502017</v>
+        <v>2.0</v>
       </c>
       <c r="I72" t="n">
-        <v>-22.965006789551055</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J72" t="n">
-        <v>-43.180462700295145</v>
+        <v>-22.965735768570994</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-43.17773472082292</v>
+      </c>
+      <c r="L72" t="n">
+        <v>160.57970370143016</v>
+      </c>
+      <c r="M72" t="n">
+        <v>6.965301676414541</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6.234013747978277</v>
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>7.760831388036122</v>
+        <v>7.85</v>
       </c>
       <c r="F73" t="n">
-        <v>2024.0631104518188</v>
+        <v>163.22030167641452</v>
       </c>
       <c r="G73" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H73" t="n">
-        <v>6345.931836053542</v>
+        <v>2.0</v>
       </c>
       <c r="I73" t="n">
-        <v>-22.968813289975888</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J73" t="n">
-        <v>-43.179519835835805</v>
+        <v>-22.96571699799212</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-43.17774539318462</v>
+      </c>
+      <c r="L73" t="n">
+        <v>162.93560333794747</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9.320301676414541</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
         <v>94</v>
       </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6.164326862046425</v>
+      <c r="D74" t="s">
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>8.262080389891846</v>
+        <v>7.85</v>
       </c>
       <c r="F74" t="n">
-        <v>2009.720414161378</v>
+        <v>165.57530167641454</v>
       </c>
       <c r="G74" t="n">
-        <v>2.0</v>
+        <v>666.6153375</v>
       </c>
       <c r="H74" t="n">
-        <v>6300.962170290481</v>
+        <v>2.0</v>
       </c>
       <c r="I74" t="n">
-        <v>-22.96486180057821</v>
+        <v>2089.921347222222</v>
       </c>
       <c r="J74" t="n">
-        <v>-43.174498719033494</v>
+        <v>-22.965698229757482</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-43.17775606407934</v>
+      </c>
+      <c r="L74" t="n">
+        <v>165.29120245061407</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5953016764145413</v>
       </c>
     </row>
     <row r="75">
@@ -2924,31 +3554,40 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="n">
-        <v>5.929884912973175</v>
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>7.046431401384173</v>
+        <v>7.322</v>
       </c>
       <c r="F75" t="n">
-        <v>1961.6469707682097</v>
+        <v>167.77190167641453</v>
       </c>
       <c r="G75" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H75" t="n">
-        <v>6150.234073502991</v>
+        <v>2.0</v>
       </c>
       <c r="I75" t="n">
-        <v>-22.974853044294004</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J75" t="n">
-        <v>-43.19026027546221</v>
+        <v>-22.965680730359246</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-43.177766013192716</v>
+      </c>
+      <c r="L75" t="n">
+        <v>167.48753254340812</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.791901676414542</v>
       </c>
     </row>
     <row r="76">
@@ -2959,28 +3598,37 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" t="n">
-        <v>6.487555833633753</v>
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>8.394398559572313</v>
+        <v>7.322</v>
       </c>
       <c r="F76" t="n">
-        <v>2076.4514008294564</v>
+        <v>169.96850167641452</v>
       </c>
       <c r="G76" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H76" t="n">
-        <v>6510.1884815749</v>
+        <v>2.0</v>
       </c>
       <c r="I76" t="n">
-        <v>-22.97015018461516</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J76" t="n">
-        <v>-43.19016432142413</v>
+        <v>-22.965663230961006</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-43.177775962306086</v>
+      </c>
+      <c r="L76" t="n">
+        <v>169.6838626973572</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4.988501676414542</v>
       </c>
     </row>
     <row r="77">
@@ -2988,31 +3636,40 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.919820376604122</v>
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>4.878217604162382</v>
+        <v>7.322</v>
       </c>
       <c r="F77" t="n">
-        <v>1757.6758728471536</v>
+        <v>171.43290167641453</v>
       </c>
       <c r="G77" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H77" t="n">
-        <v>5510.708157018687</v>
+        <v>2.0</v>
       </c>
       <c r="I77" t="n">
-        <v>-22.964408157514203</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J77" t="n">
-        <v>-43.18127842240678</v>
+        <v>-22.965651564695513</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-43.177782595048335</v>
+      </c>
+      <c r="L77" t="n">
+        <v>171.14808283407038</v>
+      </c>
+      <c r="M77" t="n">
+        <v>6.452901676414541</v>
       </c>
     </row>
     <row r="78">
@@ -3020,31 +3677,40 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.556464915163425</v>
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>1.3665845579621017</v>
+        <v>7.322</v>
       </c>
       <c r="F78" t="n">
-        <v>1300.3854745179863</v>
+        <v>173.62950167641452</v>
       </c>
       <c r="G78" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H78" t="n">
-        <v>4076.9261639535143</v>
+        <v>2.0</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.977779810534212</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J78" t="n">
-        <v>-43.19628663632787</v>
+        <v>-22.965634065297273</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-43.17779254416171</v>
+      </c>
+      <c r="L78" t="n">
+        <v>173.3444130902608</v>
+      </c>
+      <c r="M78" t="n">
+        <v>8.649501676414541</v>
       </c>
     </row>
     <row r="79">
@@ -3052,31 +3718,40 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.738629293079268</v>
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6629287270579695</v>
+        <v>7.322</v>
       </c>
       <c r="F79" t="n">
-        <v>1148.6551623982932</v>
+        <v>175.82610167641454</v>
       </c>
       <c r="G79" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H79" t="n">
-        <v>3601.1913274519898</v>
+        <v>2.0</v>
       </c>
       <c r="I79" t="n">
-        <v>-22.97445403676527</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J79" t="n">
-        <v>-43.18858037381047</v>
+        <v>-22.965616565899033</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-43.17780249327509</v>
+      </c>
+      <c r="L79" t="n">
+        <v>175.5407434075935</v>
+      </c>
+      <c r="M79" t="n">
+        <v>10.846101676414543</v>
       </c>
     </row>
     <row r="80">
@@ -3084,31 +3759,40 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.684326862046425</v>
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>9.485665411328574</v>
+        <v>7.322</v>
       </c>
       <c r="F80" t="n">
-        <v>2117.33120239134</v>
+        <v>178.02270167641453</v>
       </c>
       <c r="G80" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H80" t="n">
-        <v>6638.36170812556</v>
+        <v>2.0</v>
       </c>
       <c r="I80" t="n">
-        <v>-22.96485632917694</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J80" t="n">
-        <v>-43.17448735930894</v>
+        <v>-22.965599066500797</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-43.17781244238846</v>
+      </c>
+      <c r="L80" t="n">
+        <v>177.73707378538114</v>
+      </c>
+      <c r="M80" t="n">
+        <v>13.042701676414545</v>
       </c>
     </row>
     <row r="81">
@@ -3116,31 +3800,40 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6.754013747978276</v>
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>9.085736375201435</v>
+        <v>7.322</v>
       </c>
       <c r="F81" t="n">
-        <v>2131.8553664299425</v>
+        <v>180.21930167641455</v>
       </c>
       <c r="G81" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H81" t="n">
-        <v>6683.900297625369</v>
+        <v>2.0</v>
       </c>
       <c r="I81" t="n">
-        <v>-22.968819765245517</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J81" t="n">
-        <v>-43.17953069920421</v>
+        <v>-22.965581567102557</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-43.177822391501834</v>
+      </c>
+      <c r="L81" t="n">
+        <v>179.9334042249984</v>
+      </c>
+      <c r="M81" t="n">
+        <v>15.239301676414547</v>
       </c>
     </row>
     <row r="82">
@@ -3148,31 +3841,40 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.650165617440906</v>
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>4.371476959337713</v>
+        <v>7.322</v>
       </c>
       <c r="F82" t="n">
-        <v>1704.086195047752</v>
+        <v>181.68370167641453</v>
       </c>
       <c r="G82" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H82" t="n">
-        <v>5342.684193936137</v>
+        <v>2.0</v>
       </c>
       <c r="I82" t="n">
-        <v>-22.965010137266137</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J82" t="n">
-        <v>-43.180470747633485</v>
+        <v>-22.965569900837064</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-43.17782902424408</v>
+      </c>
+      <c r="L82" t="n">
+        <v>181.397624551932</v>
+      </c>
+      <c r="M82" t="n">
+        <v>16.703701676414546</v>
       </c>
     </row>
     <row r="83">
@@ -3180,31 +3882,40 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.449884912973174</v>
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>8.310513563004054</v>
+        <v>7.322</v>
       </c>
       <c r="F83" t="n">
-        <v>2068.6472617431436</v>
+        <v>183.88030167641455</v>
       </c>
       <c r="G83" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H83" t="n">
-        <v>6485.719627265837</v>
+        <v>2.0</v>
       </c>
       <c r="I83" t="n">
-        <v>-22.974842967820834</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J83" t="n">
-        <v>-43.19025455894283</v>
+        <v>-22.965552401438824</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-43.17783897335746</v>
+      </c>
+      <c r="L83" t="n">
+        <v>183.59395509345293</v>
+      </c>
+      <c r="M83" t="n">
+        <v>18.900301676414543</v>
       </c>
     </row>
     <row r="84">
@@ -3215,28 +3926,37 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7.007555833633752</v>
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>9.769969410015435</v>
+        <v>7.322</v>
       </c>
       <c r="F84" t="n">
-        <v>2184.903891667164</v>
+        <v>186.07690167641454</v>
       </c>
       <c r="G84" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H84" t="n">
-        <v>6850.226860734018</v>
+        <v>2.0</v>
       </c>
       <c r="I84" t="n">
-        <v>-22.97016072209823</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J84" t="n">
-        <v>-43.190171360289476</v>
+        <v>-22.965534902040588</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-43.17784892247083</v>
+      </c>
+      <c r="L84" t="n">
+        <v>185.79028569542862</v>
+      </c>
+      <c r="M84" t="n">
+        <v>21.09690167641454</v>
       </c>
     </row>
     <row r="85">
@@ -3244,31 +3964,40 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.258629293079268</v>
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0886576544294166</v>
+        <v>7.322</v>
       </c>
       <c r="F85" t="n">
-        <v>1244.741237460996</v>
+        <v>188.27350167641453</v>
       </c>
       <c r="G85" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H85" t="n">
-        <v>3902.4594703340226</v>
+        <v>2.0</v>
       </c>
       <c r="I85" t="n">
-        <v>-22.974456116964642</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J85" t="n">
-        <v>-43.18857688262033</v>
+        <v>-22.965517402642348</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-43.177858871584206</v>
+      </c>
+      <c r="L85" t="n">
+        <v>187.9866163592338</v>
+      </c>
+      <c r="M85" t="n">
+        <v>23.293501676414536</v>
       </c>
     </row>
     <row r="86">
@@ -3276,735 +4005,942 @@
         <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.7575885738538097</v>
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
       </c>
       <c r="E86" t="n">
-        <v>0.12568193236548775</v>
+        <v>7.322</v>
       </c>
       <c r="F86" t="n">
-        <v>970.1200619782722</v>
+        <v>189.73790167641454</v>
       </c>
       <c r="G86" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H86" t="n">
-        <v>3041.411690590859</v>
+        <v>2.0</v>
       </c>
       <c r="I86" t="n">
-        <v>-22.96666699506671</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J86" t="n">
-        <v>-43.17836557769016</v>
+        <v>-22.965505736376855</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-43.177865504326455</v>
+      </c>
+      <c r="L86" t="n">
+        <v>189.45083683562595</v>
+      </c>
+      <c r="M86" t="n">
+        <v>24.757901676414534</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="n">
-        <v>5.439820376604121</v>
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>5.9402993864822955</v>
+        <v>7.322</v>
       </c>
       <c r="F87" t="n">
-        <v>1862.0459108776251</v>
+        <v>191.93450167641453</v>
       </c>
       <c r="G87" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H87" t="n">
-        <v>5837.9475439066155</v>
+        <v>2.0</v>
       </c>
       <c r="I87" t="n">
-        <v>-22.96441564264152</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J87" t="n">
-        <v>-43.18127197835092</v>
+        <v>-22.965488236978615</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-43.17787545343983</v>
+      </c>
+      <c r="L87" t="n">
+        <v>191.64716760133456</v>
+      </c>
+      <c r="M87" t="n">
+        <v>26.95450167641453</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.0764649151634247</v>
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>1.9559192223350819</v>
+        <v>7.322</v>
       </c>
       <c r="F88" t="n">
-        <v>1398.6012298888454</v>
+        <v>194.13110167641452</v>
       </c>
       <c r="G88" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H88" t="n">
-        <v>4384.871116854241</v>
+        <v>2.0</v>
       </c>
       <c r="I88" t="n">
-        <v>-22.977779441572153</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J88" t="n">
-        <v>-43.19629237913935</v>
+        <v>-22.965470737580375</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-43.1778854025532</v>
+      </c>
+      <c r="L88" t="n">
+        <v>193.84349842784778</v>
+      </c>
+      <c r="M88" t="n">
+        <v>29.151101676414527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.7750736187477596</v>
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
       </c>
       <c r="E89" t="n">
-        <v>0.12900238136530243</v>
+        <v>7.322</v>
       </c>
       <c r="F89" t="n">
-        <v>974.1877449504518</v>
+        <v>196.3277016764145</v>
       </c>
       <c r="G89" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H89" t="n">
-        <v>3054.1654494510067</v>
+        <v>2.0</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.966432365842746</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J89" t="n">
-        <v>-43.1802243645611</v>
+        <v>-22.96545323818214</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-43.17789535166658</v>
+      </c>
+      <c r="L89" t="n">
+        <v>196.03982931549035</v>
+      </c>
+      <c r="M89" t="n">
+        <v>31.347701676414523</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.274013747978276</v>
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
       </c>
       <c r="E90" t="n">
-        <v>10.514649337548539</v>
+        <v>7.322</v>
       </c>
       <c r="F90" t="n">
-        <v>2241.001725519178</v>
+        <v>198.5243016764145</v>
       </c>
       <c r="G90" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H90" t="n">
-        <v>7026.114039197196</v>
+        <v>2.0</v>
       </c>
       <c r="I90" t="n">
-        <v>-22.968826748838396</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J90" t="n">
-        <v>-43.17954241537149</v>
+        <v>-22.9654357387839</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-43.177905300779955</v>
+      </c>
+      <c r="L90" t="n">
+        <v>198.23616026462486</v>
+      </c>
+      <c r="M90" t="n">
+        <v>33.54430167641452</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.170165617440905</v>
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
       </c>
       <c r="E91" t="n">
-        <v>5.379577068545737</v>
+        <v>7.322</v>
       </c>
       <c r="F91" t="n">
-        <v>1807.7540401007063</v>
+        <v>200.7209016764145</v>
       </c>
       <c r="G91" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H91" t="n">
-        <v>5667.722119370257</v>
+        <v>2.0</v>
       </c>
       <c r="I91" t="n">
-        <v>-22.965013870102474</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J91" t="n">
-        <v>-43.18047972073788</v>
+        <v>-22.96541823938566</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-43.177915249893324</v>
+      </c>
+      <c r="L91" t="n">
+        <v>200.43249127456386</v>
+      </c>
+      <c r="M91" t="n">
+        <v>35.740901676414516</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="n">
-        <v>7.2043268620464245</v>
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>10.829730018867556</v>
+        <v>7.322</v>
       </c>
       <c r="F92" t="n">
-        <v>2226.296093732414</v>
+        <v>202.1853016764145</v>
       </c>
       <c r="G92" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H92" t="n">
-        <v>6980.00652596064</v>
+        <v>2.0</v>
       </c>
       <c r="I92" t="n">
-        <v>-22.964850423691633</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J92" t="n">
-        <v>-43.17447509833901</v>
+        <v>-22.965406573120166</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-43.17792188263557</v>
+      </c>
+      <c r="L92" t="n">
+        <v>201.8967119819367</v>
+      </c>
+      <c r="M92" t="n">
+        <v>37.205301676414514</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="n">
-        <v>6.969884912973174</v>
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
       </c>
       <c r="E93" t="n">
-        <v>9.678604401703714</v>
+        <v>7.322</v>
       </c>
       <c r="F93" t="n">
-        <v>2177.0016558291886</v>
+        <v>204.3819016764145</v>
       </c>
       <c r="G93" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H93" t="n">
-        <v>6825.450461028682</v>
+        <v>2.0</v>
       </c>
       <c r="I93" t="n">
-        <v>-22.97483206225566</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J93" t="n">
-        <v>-43.19024837206835</v>
+        <v>-22.965389073721926</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-43.17793183174895</v>
+      </c>
+      <c r="L93" t="n">
+        <v>204.09304309411618</v>
+      </c>
+      <c r="M93" t="n">
+        <v>39.40190167641451</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7.527555833633752</v>
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>11.249546852492013</v>
+        <v>7.322</v>
       </c>
       <c r="F94" t="n">
-        <v>2294.710485615983</v>
+        <v>206.5785016764145</v>
       </c>
       <c r="G94" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H94" t="n">
-        <v>7194.510519893136</v>
+        <v>2.0</v>
       </c>
       <c r="I94" t="n">
-        <v>-22.970172056302008</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J94" t="n">
-        <v>-43.19017893135116</v>
+        <v>-22.96537157432369</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-43.17794178086233</v>
+      </c>
+      <c r="L94" t="n">
+        <v>206.28937426708745</v>
+      </c>
+      <c r="M94" t="n">
+        <v>41.59850167641451</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2.778629293079268</v>
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>1.6183873246586933</v>
+        <v>7.322</v>
       </c>
       <c r="F95" t="n">
-        <v>1342.1814156348091</v>
+        <v>208.7751016764145</v>
       </c>
       <c r="G95" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H95" t="n">
-        <v>4207.972893216053</v>
+        <v>2.0</v>
       </c>
       <c r="I95" t="n">
-        <v>-22.974458705333138</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J95" t="n">
-        <v>-43.18857253857204</v>
+        <v>-22.96535407492545</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-43.177951729975696</v>
+      </c>
+      <c r="L95" t="n">
+        <v>208.4857055012131</v>
+      </c>
+      <c r="M95" t="n">
+        <v>43.795101676414504</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.2775885738538098</v>
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3552256418152751</v>
+        <v>7.322</v>
       </c>
       <c r="F96" t="n">
-        <v>1064.5961453415591</v>
+        <v>210.9717016764145</v>
       </c>
       <c r="G96" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H96" t="n">
-        <v>3337.6324931789404</v>
+        <v>2.0</v>
       </c>
       <c r="I96" t="n">
-        <v>-22.966665962653597</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J96" t="n">
-        <v>-43.17836363616315</v>
+        <v>-22.965336575351195</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-43.177961690586585</v>
+      </c>
+      <c r="L96" t="n">
+        <v>210.68260030791484</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.8417016764145044</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6.219820376604121</v>
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
       </c>
       <c r="E97" t="n">
-        <v>7.728443621896663</v>
+        <v>7.322</v>
       </c>
       <c r="F97" t="n">
-        <v>2021.1399112566655</v>
+        <v>213.1683016764145</v>
       </c>
       <c r="G97" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H97" t="n">
-        <v>6336.766524238509</v>
+        <v>2.0</v>
       </c>
       <c r="I97" t="n">
-        <v>-22.96442824476677</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J97" t="n">
-        <v>-43.18126112899652</v>
+        <v>-22.96531907574302</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-43.17797165341306</v>
+      </c>
+      <c r="L97" t="n">
+        <v>212.87960382106868</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4.0383016764145045</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.2950736187477596</v>
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
       </c>
       <c r="E98" t="n">
-        <v>0.36199481402280265</v>
+        <v>7.322</v>
       </c>
       <c r="F98" t="n">
-        <v>1067.7646782124984</v>
+        <v>214.6327016764145</v>
       </c>
       <c r="G98" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H98" t="n">
-        <v>3347.5671238077966</v>
+        <v>2.0</v>
       </c>
       <c r="I98" t="n">
-        <v>-22.966430533194092</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J98" t="n">
-        <v>-43.180225467836536</v>
+        <v>-22.965307409337573</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-43.17797829529737</v>
+      </c>
+      <c r="L98" t="n">
+        <v>214.34427286366403</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5.502701676414504</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.856464915163424</v>
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
       </c>
       <c r="E99" t="n">
-        <v>3.0349350143728064</v>
+        <v>7.322</v>
       </c>
       <c r="F99" t="n">
-        <v>1548.463806278468</v>
+        <v>216.8293016764145</v>
       </c>
       <c r="G99" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H99" t="n">
-        <v>4854.748446205332</v>
+        <v>2.0</v>
       </c>
       <c r="I99" t="n">
-        <v>-22.97777876603767</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J99" t="n">
-        <v>-43.19630289368165</v>
+        <v>-22.965289909729403</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-43.17798825812385</v>
+      </c>
+      <c r="L99" t="n">
+        <v>216.54127647862177</v>
+      </c>
+      <c r="M99" t="n">
+        <v>7.699301676414503</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7.794013747978275</v>
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
       </c>
       <c r="E100" t="n">
-        <v>12.047570264329554</v>
+        <v>7.322</v>
       </c>
       <c r="F100" t="n">
-        <v>2351.5021877195245</v>
+        <v>219.0259016764145</v>
       </c>
       <c r="G100" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H100" t="n">
-        <v>7372.573060769023</v>
+        <v>2.0</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.968834240754525</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J100" t="n">
-        <v>-43.17955498433767</v>
+        <v>-22.96527241012123</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-43.17799822095032</v>
+      </c>
+      <c r="L100" t="n">
+        <v>218.73828015522162</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9.895901676414505</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5.690165617440905</v>
+        <v>117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
       </c>
       <c r="E101" t="n">
-        <v>6.491684062763806</v>
+        <v>7.322</v>
       </c>
       <c r="F101" t="n">
-        <v>1912.775988264772</v>
+        <v>221.2225016764145</v>
       </c>
       <c r="G101" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H101" t="n">
-        <v>5997.005324804378</v>
+        <v>2.0</v>
       </c>
       <c r="I101" t="n">
-        <v>-22.965017988060062</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J101" t="n">
-        <v>-43.180489619608345</v>
+        <v>-22.965254910513057</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-43.17800818377679</v>
+      </c>
+      <c r="L101" t="n">
+        <v>220.93528389277589</v>
+      </c>
+      <c r="M101" t="n">
+        <v>12.092501676414507</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
         <v>124</v>
       </c>
-      <c r="B102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.724326862046424</v>
+      <c r="D102" t="s">
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>12.316624718606954</v>
+        <v>7.322</v>
       </c>
       <c r="F102" t="n">
-        <v>2336.615088184599</v>
+        <v>223.4191016764145</v>
       </c>
       <c r="G102" t="n">
-        <v>2.0</v>
+        <v>668.41047766</v>
       </c>
       <c r="H102" t="n">
-        <v>7325.896623795719</v>
+        <v>2.0</v>
       </c>
       <c r="I102" t="n">
-        <v>-22.964844462931634</v>
+        <v>2095.544441622222</v>
       </c>
       <c r="J102" t="n">
-        <v>-43.17446158701002</v>
+        <v>-22.96523741090646</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-43.17801814656746</v>
+      </c>
+      <c r="L102" t="n">
+        <v>223.132285834721</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.00910167641450954</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.4898849129731735</v>
+        <v>124</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
       </c>
       <c r="E103" t="n">
-        <v>11.150703922206375</v>
+        <v>7.65</v>
       </c>
       <c r="F103" t="n">
-        <v>2286.710153026344</v>
+        <v>224.9491016764145</v>
       </c>
       <c r="G103" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H103" t="n">
-        <v>7169.426574791528</v>
+        <v>2.0</v>
       </c>
       <c r="I103" t="n">
-        <v>-22.974820327598486</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J103" t="n">
-        <v>-43.190241714838784</v>
+        <v>-22.965225222151663</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-43.17802507996607</v>
+      </c>
+      <c r="L103" t="n">
+        <v>224.66225504302597</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.5391016764145098</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.7975885738538098</v>
+        <v>124</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6887811321868356</v>
+        <v>7.65</v>
       </c>
       <c r="F104" t="n">
-        <v>1159.4816498806997</v>
+        <v>227.24410167641452</v>
       </c>
       <c r="G104" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H104" t="n">
-        <v>3635.1366996292163</v>
+        <v>2.0</v>
       </c>
       <c r="I104" t="n">
-        <v>-22.96666446242926</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J104" t="n">
-        <v>-43.178360814883526</v>
+        <v>-22.965206939019467</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-43.17803548006398</v>
+      </c>
+      <c r="L104" t="n">
+        <v>226.95720891097727</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.83410167641451</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" t="n">
-        <v>3.2986292930792676</v>
+        <v>124</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>2.252117734540985</v>
+        <v>7.65</v>
       </c>
       <c r="F105" t="n">
-        <v>1440.9756969197335</v>
+        <v>229.5391016764145</v>
       </c>
       <c r="G105" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H105" t="n">
-        <v>4517.731596098085</v>
+        <v>2.0</v>
       </c>
       <c r="I105" t="n">
-        <v>-22.974461801870753</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J105" t="n">
-        <v>-43.188567341665575</v>
+        <v>-22.96518865588727</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-43.178045880161896</v>
+      </c>
+      <c r="L105" t="n">
+        <v>229.2521628457311</v>
+      </c>
+      <c r="M105" t="n">
+        <v>6.1291016764145105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" t="n">
-        <v>8.047555833633751</v>
+        <v>124</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
       </c>
       <c r="E106" t="n">
-        <v>12.83313050184742</v>
+        <v>7.65</v>
       </c>
       <c r="F106" t="n">
-        <v>2405.8711826759136</v>
+        <v>231.83410167641452</v>
       </c>
       <c r="G106" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H106" t="n">
-        <v>7543.039459052256</v>
+        <v>2.0</v>
       </c>
       <c r="I106" t="n">
-        <v>-22.9701841872265</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J106" t="n">
-        <v>-43.190187034609174</v>
+        <v>-22.965170372755075</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-43.17805628025981</v>
+      </c>
+      <c r="L106" t="n">
+        <v>231.54711684728744</v>
+      </c>
+      <c r="M106" t="n">
+        <v>8.424101676414512</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6.4798203766041205</v>
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>8.376497446888859</v>
+        <v>7.65</v>
       </c>
       <c r="F107" t="n">
-        <v>2074.8482962719013</v>
+        <v>234.1291016764145</v>
       </c>
       <c r="G107" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H107" t="n">
-        <v>6505.162157682473</v>
+        <v>2.0</v>
       </c>
       <c r="I107" t="n">
-        <v>-22.964432811990996</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J107" t="n">
-        <v>-43.18125719700622</v>
+        <v>-22.96515208962288</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-43.17806668035772</v>
+      </c>
+      <c r="L107" t="n">
+        <v>233.84207091564622</v>
+      </c>
+      <c r="M107" t="n">
+        <v>10.719101676414514</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.116464915163424</v>
+        <v>124</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>3.4466106252251008</v>
+        <v>7.65</v>
       </c>
       <c r="F108" t="n">
-        <v>1599.095049963898</v>
+        <v>235.6591016764145</v>
       </c>
       <c r="G108" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H108" t="n">
-        <v>5013.496862655695</v>
+        <v>2.0</v>
       </c>
       <c r="I108" t="n">
-        <v>-22.977778508301803</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J108" t="n">
-        <v>-43.19630690528244</v>
+        <v>-22.96513990086808</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-43.178073613756325</v>
+      </c>
+      <c r="L108" t="n">
+        <v>235.37204033144366</v>
+      </c>
+      <c r="M108" t="n">
+        <v>12.249101676414515</v>
       </c>
     </row>
     <row r="109">
@@ -4012,31 +4948,40 @@
         <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.5550736187477596</v>
+        <v>124</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5174872996580737</v>
+        <v>7.65</v>
       </c>
       <c r="F109" t="n">
-        <v>1115.0609335101885</v>
+        <v>237.95410167641452</v>
       </c>
       <c r="G109" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H109" t="n">
-        <v>3495.8599409861918</v>
+        <v>2.0</v>
       </c>
       <c r="I109" t="n">
-        <v>-22.9664293101368</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J109" t="n">
-        <v>-43.180226204131</v>
+        <v>-22.965121617735885</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-43.17808401385424</v>
+      </c>
+      <c r="L109" t="n">
+        <v>237.66699451113976</v>
+      </c>
+      <c r="M109" t="n">
+        <v>14.544101676414517</v>
       </c>
     </row>
     <row r="110">
@@ -4044,31 +4989,40 @@
         <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
-      </c>
-      <c r="D110" t="n">
-        <v>6.210165617440905</v>
+        <v>124</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>7.707797932936763</v>
+        <v>7.65</v>
       </c>
       <c r="F110" t="n">
-        <v>2019.1520395399489</v>
+        <v>240.2491016764145</v>
       </c>
       <c r="G110" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H110" t="n">
-        <v>6330.533810238498</v>
+        <v>2.0</v>
       </c>
       <c r="I110" t="n">
-        <v>-22.965022491138903</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J110" t="n">
-        <v>-43.18050044424487</v>
+        <v>-22.96510333460369</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-43.17809441395215</v>
+      </c>
+      <c r="L110" t="n">
+        <v>239.9619487576382</v>
+      </c>
+      <c r="M110" t="n">
+        <v>16.83910167641452</v>
       </c>
     </row>
     <row r="111">
@@ -4076,255 +5030,327 @@
         <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.768671408322407</v>
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>0.12773039654472854</v>
+        <v>7.65</v>
       </c>
       <c r="F111" t="n">
-        <v>973.0440695206441</v>
+        <v>242.54410167641453</v>
       </c>
       <c r="G111" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H111" t="n">
-        <v>3050.5795603044453</v>
+        <v>2.0</v>
       </c>
       <c r="I111" t="n">
-        <v>-22.96537816059407</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J111" t="n">
-        <v>-43.17305907609832</v>
+        <v>-22.965085051471494</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-43.178104814050066</v>
+      </c>
+      <c r="L111" t="n">
+        <v>242.2569030709389</v>
+      </c>
+      <c r="M111" t="n">
+        <v>19.13410167641452</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8.244326862046425</v>
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
       </c>
       <c r="E112" t="n">
-        <v>13.91823492483324</v>
+        <v>7.65</v>
       </c>
       <c r="F112" t="n">
-        <v>2448.2881857479015</v>
+        <v>244.83910167641451</v>
       </c>
       <c r="G112" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H112" t="n">
-        <v>7676.03200163082</v>
+        <v>2.0</v>
       </c>
       <c r="I112" t="n">
-        <v>-22.96483811896994</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J112" t="n">
-        <v>-43.17444712754209</v>
+        <v>-22.965066768339298</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-43.17811521414798</v>
+      </c>
+      <c r="L112" t="n">
+        <v>244.55185745104185</v>
+      </c>
+      <c r="M112" t="n">
+        <v>21.429101676414522</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.314013747978276</v>
+        <v>124</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
       </c>
       <c r="E113" t="n">
-        <v>13.684499143573866</v>
+        <v>7.65</v>
       </c>
       <c r="F113" t="n">
-        <v>2463.3567530309815</v>
+        <v>246.36910167641452</v>
       </c>
       <c r="G113" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H113" t="n">
-        <v>7723.277362340852</v>
+        <v>2.0</v>
       </c>
       <c r="I113" t="n">
-        <v>-22.968842240993908</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J113" t="n">
-        <v>-43.17956840610274</v>
+        <v>-22.965054579584503</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-43.17812214754659</v>
+      </c>
+      <c r="L113" t="n">
+        <v>246.0818270746562</v>
+      </c>
+      <c r="M113" t="n">
+        <v>22.959101676414523</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.749884912973173</v>
+        <v>124</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
       </c>
       <c r="E114" t="n">
-        <v>11.92575694053524</v>
+        <v>7.65</v>
       </c>
       <c r="F114" t="n">
-        <v>2342.072190291589</v>
+        <v>248.66410167641453</v>
       </c>
       <c r="G114" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H114" t="n">
-        <v>7343.006611672952</v>
+        <v>2.0</v>
       </c>
       <c r="I114" t="n">
-        <v>-22.974814149360395</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J114" t="n">
-        <v>-43.190238209840835</v>
+        <v>-22.965036296452308</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-43.1781325476445</v>
+      </c>
+      <c r="L114" t="n">
+        <v>248.37678156609613</v>
+      </c>
+      <c r="M114" t="n">
+        <v>25.254101676414525</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8.567555833633751</v>
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
       </c>
       <c r="E115" t="n">
-        <v>14.520720084008655</v>
+        <v>7.65</v>
       </c>
       <c r="F115" t="n">
-        <v>2518.385982846955</v>
+        <v>250.95910167641452</v>
       </c>
       <c r="G115" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H115" t="n">
-        <v>7895.813678211373</v>
+        <v>2.0</v>
       </c>
       <c r="I115" t="n">
-        <v>-22.97019711487171</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J115" t="n">
-        <v>-43.190195670063524</v>
+        <v>-22.965018013320112</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-43.178142947742415</v>
+      </c>
+      <c r="L115" t="n">
+        <v>250.6717361243382</v>
+      </c>
+      <c r="M115" t="n">
+        <v>27.549101676414526</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.636464915163423</v>
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>4.347967366612357</v>
+        <v>7.65</v>
       </c>
       <c r="F116" t="n">
-        <v>1701.3731146680905</v>
+        <v>253.25410167641454</v>
       </c>
       <c r="G116" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H116" t="n">
-        <v>5334.177655556423</v>
+        <v>2.0</v>
       </c>
       <c r="I116" t="n">
-        <v>-22.977777943993512</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J116" t="n">
-        <v>-43.19631568861406</v>
+        <v>-22.964999730187916</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-43.17815334784033</v>
+      </c>
+      <c r="L116" t="n">
+        <v>252.96669074938234</v>
+      </c>
+      <c r="M116" t="n">
+        <v>29.844101676414528</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.99982037660412</v>
+        <v>124</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
       </c>
       <c r="E117" t="n">
-        <v>9.75061370937654</v>
+        <v>7.65</v>
       </c>
       <c r="F117" t="n">
-        <v>2183.2806436357064</v>
+        <v>254.78410167641454</v>
       </c>
       <c r="G117" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H117" t="n">
-        <v>6845.137384570402</v>
+        <v>2.0</v>
       </c>
       <c r="I117" t="n">
-        <v>-22.964442496213152</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J117" t="n">
-        <v>-43.18124885971737</v>
+        <v>-22.964987541433118</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-43.17816028123894</v>
+      </c>
+      <c r="L117" t="n">
+        <v>254.49666053664066</v>
+      </c>
+      <c r="M117" t="n">
+        <v>31.37410167641453</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.0750736187477594</v>
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9064648114216287</v>
+        <v>7.65</v>
       </c>
       <c r="F118" t="n">
-        <v>1210.6690214389014</v>
+        <v>257.07910167641455</v>
       </c>
       <c r="G118" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H118" t="n">
-        <v>3795.6295353429805</v>
+        <v>2.0</v>
       </c>
       <c r="I118" t="n">
-        <v>-22.966426250556278</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J118" t="n">
-        <v>-43.18022804603345</v>
+        <v>-22.964969258300922</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-43.17817068133685</v>
+      </c>
+      <c r="L118" t="n">
+        <v>256.79161527302153</v>
+      </c>
+      <c r="M118" t="n">
+        <v>33.66910167641453</v>
       </c>
     </row>
     <row r="119">
@@ -4332,31 +5358,40 @@
         <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.3175885738538096</v>
+        <v>124</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
       </c>
       <c r="E119" t="n">
-        <v>1.126348406274181</v>
+        <v>7.65</v>
       </c>
       <c r="F119" t="n">
-        <v>1255.7212575309516</v>
+        <v>259.3741016764145</v>
       </c>
       <c r="G119" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H119" t="n">
-        <v>3936.886186079491</v>
+        <v>2.0</v>
       </c>
       <c r="I119" t="n">
-        <v>-22.9666624943937</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J119" t="n">
-        <v>-43.17835711385129</v>
+        <v>-22.964950975168726</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-43.178181081434765</v>
+      </c>
+      <c r="L119" t="n">
+        <v>259.08657007620434</v>
+      </c>
+      <c r="M119" t="n">
+        <v>35.96410167641453</v>
       </c>
     </row>
     <row r="120">
@@ -4364,31 +5399,40 @@
         <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3.818629293079267</v>
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
       </c>
       <c r="E120" t="n">
-        <v>2.9898488778165273</v>
+        <v>7.65</v>
       </c>
       <c r="F120" t="n">
-        <v>1541.1240813157697</v>
+        <v>261.6691016764145</v>
       </c>
       <c r="G120" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H120" t="n">
-        <v>4831.735578980117</v>
+        <v>2.0</v>
       </c>
       <c r="I120" t="n">
-        <v>-22.974465406577487</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J120" t="n">
-        <v>-43.18856129190095</v>
+        <v>-22.96493269203653</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-43.17819148153268</v>
+      </c>
+      <c r="L120" t="n">
+        <v>261.3815249461891</v>
+      </c>
+      <c r="M120" t="n">
+        <v>38.25910167641453</v>
       </c>
     </row>
     <row r="121">
@@ -4396,31 +5440,40 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.730165617440904</v>
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
       </c>
       <c r="E121" t="n">
-        <v>9.027918671097565</v>
+        <v>7.65</v>
       </c>
       <c r="F121" t="n">
-        <v>2126.8821939262366</v>
+        <v>263.96410167641454</v>
       </c>
       <c r="G121" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H121" t="n">
-        <v>6668.307575672618</v>
+        <v>2.0</v>
       </c>
       <c r="I121" t="n">
-        <v>-22.965027379339</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J121" t="n">
-        <v>-43.18051219464746</v>
+        <v>-22.964914408904335</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-43.17820188163059</v>
+      </c>
+      <c r="L121" t="n">
+        <v>263.6764798829757</v>
+      </c>
+      <c r="M121" t="n">
+        <v>40.55410167641453</v>
       </c>
     </row>
     <row r="122">
@@ -4428,31 +5481,40 @@
         <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8.764326862046424</v>
+        <v>124</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
       </c>
       <c r="E122" t="n">
-        <v>15.63119823194102</v>
+        <v>7.65</v>
       </c>
       <c r="F122" t="n">
-        <v>2561.315386422302</v>
+        <v>266.2591016764145</v>
       </c>
       <c r="G122" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H122" t="n">
-        <v>8030.412659465879</v>
+        <v>2.0</v>
       </c>
       <c r="I122" t="n">
-        <v>-22.964831368460647</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J122" t="n">
-        <v>-43.17443174145098</v>
+        <v>-22.96489612577214</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-43.1782122817285</v>
+      </c>
+      <c r="L122" t="n">
+        <v>265.97143488622663</v>
+      </c>
+      <c r="M122" t="n">
+        <v>42.849101676414534</v>
       </c>
     </row>
     <row r="123">
@@ -4460,31 +5522,40 @@
         <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="n">
-        <v>8.834013747978275</v>
+        <v>124</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
       </c>
       <c r="E123" t="n">
-        <v>15.425435962054712</v>
+        <v>7.65</v>
       </c>
       <c r="F123" t="n">
-        <v>2576.5654214535507</v>
+        <v>267.78910167641453</v>
       </c>
       <c r="G123" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H123" t="n">
-        <v>8078.2269439126785</v>
+        <v>2.0</v>
       </c>
       <c r="I123" t="n">
-        <v>-22.96885074955654</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J123" t="n">
-        <v>-43.1795826806667</v>
+        <v>-22.96488393701734</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-43.17821921512711</v>
+      </c>
+      <c r="L123" t="n">
+        <v>267.50140492584774</v>
+      </c>
+      <c r="M123" t="n">
+        <v>44.379101676414535</v>
       </c>
     </row>
     <row r="124">
@@ -4492,31 +5563,40 @@
         <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.028671408322407</v>
+        <v>124</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
       </c>
       <c r="E124" t="n">
-        <v>0.23059440864906536</v>
+        <v>7.65</v>
       </c>
       <c r="F124" t="n">
-        <v>1019.6549374425334</v>
+        <v>270.08410167641455</v>
       </c>
       <c r="G124" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H124" t="n">
-        <v>3343.928967015323</v>
+        <v>2.0</v>
       </c>
       <c r="I124" t="n">
-        <v>-22.965377327573236</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J124" t="n">
-        <v>-43.17305951303023</v>
+        <v>-22.964865653885145</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-43.17822961522502</v>
+      </c>
+      <c r="L124" t="n">
+        <v>269.7963600407725</v>
+      </c>
+      <c r="M124" t="n">
+        <v>46.67410167641454</v>
       </c>
     </row>
     <row r="125">
@@ -4524,543 +5604,163 @@
         <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" t="n">
-        <v>8.269884912973174</v>
+        <v>124</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
       </c>
       <c r="E125" t="n">
-        <v>13.553869495445754</v>
+        <v>7.65</v>
       </c>
       <c r="F125" t="n">
-        <v>2453.8118421554113</v>
+        <v>272.3791016764145</v>
       </c>
       <c r="G125" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H125" t="n">
-        <v>7693.350645435798</v>
+        <v>2.0</v>
       </c>
       <c r="I125" t="n">
-        <v>-22.974801171065213</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J125" t="n">
-        <v>-43.190230847078624</v>
+        <v>-22.96484737075295</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-43.178240015322935</v>
+      </c>
+      <c r="L125" t="n">
+        <v>272.091315222499</v>
+      </c>
+      <c r="M125" t="n">
+        <v>48.96910167641454</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.7587739893127295</v>
+        <v>124</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>0.12576165774746478</v>
+        <v>7.65</v>
       </c>
       <c r="F126" t="n">
-        <v>971.2764223969547</v>
+        <v>274.6741016764145</v>
       </c>
       <c r="G126" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H126" t="n">
-        <v>3045.037265172274</v>
+        <v>2.0</v>
       </c>
       <c r="I126" t="n">
-        <v>-22.972851800681948</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J126" t="n">
-        <v>-43.19127993008687</v>
+        <v>-22.964829087620753</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-43.17825041542085</v>
+      </c>
+      <c r="L126" t="n">
+        <v>274.3862704710272</v>
+      </c>
+      <c r="M126" t="n">
+        <v>51.26410167641454</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2.837588573853809</v>
+        <v>124</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
       </c>
       <c r="E127" t="n">
-        <v>1.667927467483397</v>
+        <v>7.65</v>
       </c>
       <c r="F127" t="n">
-        <v>1353.3149682923145</v>
+        <v>276.96910167641454</v>
       </c>
       <c r="G127" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H127" t="n">
-        <v>4242.880952529766</v>
+        <v>2.0</v>
       </c>
       <c r="I127" t="n">
-        <v>-22.96666005854691</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J127" t="n">
-        <v>-43.178352533066445</v>
+        <v>-22.964810804488557</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-43.17826081551876</v>
+      </c>
+      <c r="L127" t="n">
+        <v>276.68122578635706</v>
+      </c>
+      <c r="M127" t="n">
+        <v>53.55910167641454</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.595073618747759</v>
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>1.3994323777866753</v>
+        <v>7.65</v>
       </c>
       <c r="F128" t="n">
-        <v>1307.6312124787257</v>
+        <v>278.4991016764145</v>
       </c>
       <c r="G128" t="n">
-        <v>2.0</v>
+        <v>667.1310597222222</v>
       </c>
       <c r="H128" t="n">
-        <v>4099.64440969977</v>
+        <v>2.0</v>
       </c>
       <c r="I128" t="n">
-        <v>-22.966422373021178</v>
+        <v>2091.536347222222</v>
       </c>
       <c r="J128" t="n">
-        <v>-43.1802303803539</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.338629293079267</v>
-      </c>
-      <c r="E129" t="n">
-        <v>3.8315807498414505</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1642.6265688229162</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>5149.98484186215</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-22.97446951945334</v>
-      </c>
-      <c r="J129" t="n">
-        <v>-43.18855438927816</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>153</v>
-      </c>
-      <c r="B130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" t="s">
-        <v>63</v>
-      </c>
-      <c r="D130" t="n">
-        <v>5.156464915163423</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5.353331468654372</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1805.0052824833945</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>5659.1037284571485</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-22.977777314569813</v>
-      </c>
-      <c r="J130" t="n">
-        <v>-43.19632548545238</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>154</v>
-      </c>
-      <c r="B131" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131" t="s">
-        <v>33</v>
-      </c>
-      <c r="D131" t="n">
-        <v>7.51982037660412</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11.228741449241468</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2293.067094110622</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>7189.357891458331</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-22.96445291346693</v>
-      </c>
-      <c r="J131" t="n">
-        <v>-43.18123989135086</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>155</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9.08755583363375</v>
-      </c>
-      <c r="E132" t="n">
-        <v>16.31231539610877</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2632.254886129107</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>8252.833177370492</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-22.97021083923763</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-43.190204837714205</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>156</v>
-      </c>
-      <c r="B133" t="s">
-        <v>40</v>
-      </c>
-      <c r="C133" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6.990165617440904</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.726981612279051</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2181.255059786047</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>6838.786438389679</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-22.965029967859515</v>
-      </c>
-      <c r="J133" t="n">
-        <v>-43.18051841701103</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.284326862046424</v>
-      </c>
-      <c r="E134" t="n">
-        <v>17.454248549549852</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2675.6966902078207</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>8389.038597300958</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-22.96482421140376</v>
-      </c>
-      <c r="J134" t="n">
-        <v>-43.174415428736694</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9.354013747978275</v>
-      </c>
-      <c r="E135" t="n">
-        <v>17.270380705537278</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2691.1281929872302</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>8437.421805484506</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-22.968859766442428</v>
-      </c>
-      <c r="J135" t="n">
-        <v>-43.17959780802954</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.8086714083224071</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.6951817014101037</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1161.518695874868</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>3641.5236537262003</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-22.965373565218602</v>
-      </c>
-      <c r="J136" t="n">
-        <v>-43.17306148644164</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8.789884912973173</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15.285990748469855</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2566.9055971303455</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>8047.939959198643</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-22.974787363678026</v>
-      </c>
-      <c r="J137" t="n">
-        <v>-43.19022301396131</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" t="s">
-        <v>149</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.2787739893127295</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.3555289871397995</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1064.8109106995246</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>3338.3058693543576</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-22.97285293973478</v>
-      </c>
-      <c r="J138" t="n">
-        <v>-43.191278057523306</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" t="s">
-        <v>107</v>
-      </c>
-      <c r="C139" t="s">
-        <v>108</v>
-      </c>
-      <c r="D139" t="n">
-        <v>3.097588573853809</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.9777214196726303</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1402.6196123396626</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>4397.470315754904</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-22.966658665194306</v>
-      </c>
-      <c r="J139" t="n">
-        <v>-43.17834991276679</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" t="s">
-        <v>113</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.855073618747759</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.6849124318623678</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1405.9475066296613</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>4407.904564056559</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-22.96642012752066</v>
-      </c>
-      <c r="J140" t="n">
-        <v>-43.18023173217087</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" t="s">
-        <v>62</v>
-      </c>
-      <c r="C141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D141" t="n">
-        <v>5.6764649151634226</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6.462702934276282</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1909.991553409809</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>5988.275081357877</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-22.977776620030703</v>
-      </c>
-      <c r="J141" t="n">
-        <v>-43.196336295797416</v>
+        <v>-22.964798615733763</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-43.17826774891737</v>
+      </c>
+      <c r="L128" t="n">
+        <v>278.2111960334556</v>
+      </c>
+      <c r="M128" t="n">
+        <v>55.08910167641454</v>
       </c>
     </row>
   </sheetData>
